--- a/clean_data/summarized_data.xlsx
+++ b/clean_data/summarized_data.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Global Company Key</t>
   </si>
   <si>
-    <t>FCFROIC_cal</t>
+    <t>FCFROIC_ADJ</t>
   </si>
   <si>
     <t>avg_fcfroic</t>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>10y_ind</t>
+  </si>
+  <si>
+    <t>high_q</t>
+  </si>
+  <si>
+    <t>low_q</t>
   </si>
   <si>
     <t>ind</t>
@@ -410,18 +416,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -456,4515 +462,5362 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>1994</v>
+        <v>1983</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>7171</v>
+        <v>4304.625</v>
       </c>
       <c r="D2">
-        <v>0.3594167180119121</v>
+        <v>0.01011941618368431</v>
+      </c>
+      <c r="E2">
+        <v>0.03553737926769353</v>
+      </c>
+      <c r="F2">
+        <v>0.03637636344186047</v>
       </c>
       <c r="G2">
-        <v>1.077302522429395</v>
+        <v>0.8923902878888579</v>
       </c>
       <c r="H2">
-        <v>7.201381333333334</v>
+        <v>12.47095</v>
       </c>
       <c r="I2">
-        <v>0.07201381333333334</v>
+        <v>0.1247095</v>
       </c>
       <c r="J2">
-        <v>0.1366519646790971</v>
+        <v>0.1782529172733315</v>
       </c>
       <c r="K2">
-        <v>0.1383533137651203</v>
+        <v>0.09197195364530562</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.75</v>
+      </c>
+      <c r="O2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
       <c r="C3">
-        <v>7305.547169811321</v>
+        <v>4304.625</v>
       </c>
       <c r="D3">
-        <v>0.1005510480879018</v>
+        <v>0.02927745461736303</v>
+      </c>
+      <c r="E3">
+        <v>0.03579344365242778</v>
+      </c>
+      <c r="F3">
+        <v>0.0362887853524724</v>
       </c>
       <c r="G3">
-        <v>1.081354291552267</v>
+        <v>0.8948686058816748</v>
       </c>
       <c r="H3">
-        <v>7.20688249764151</v>
+        <v>12.79846</v>
       </c>
       <c r="I3">
-        <v>0.07206882497641511</v>
+        <v>0.1279846</v>
       </c>
       <c r="J3">
-        <v>0.1369500824695511</v>
+        <v>0.1816767163529005</v>
       </c>
       <c r="K3">
-        <v>0.1497685674716335</v>
+        <v>0.09270585641641972</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3584905660377358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.75</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>1994</v>
+      </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7248.877192982456</v>
+        <v>7171</v>
       </c>
       <c r="D4">
-        <v>0.2353082346796738</v>
+        <v>0.8554319931565441</v>
       </c>
       <c r="G4">
-        <v>1.075782152661989</v>
+        <v>1.077302522429395</v>
       </c>
       <c r="H4">
-        <v>7.745575794590643</v>
+        <v>7.201381333333334</v>
       </c>
       <c r="I4">
-        <v>0.07745575794590644</v>
+        <v>0.07201381333333334</v>
       </c>
       <c r="J4">
-        <v>0.1420026871056258</v>
+        <v>0.1366519646790971</v>
       </c>
       <c r="K4">
-        <v>0.1484852370341558</v>
-      </c>
-      <c r="L4">
+        <v>0.1383533137651203</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0.5350877192982456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>7231.2265625</v>
+        <v>6810.923076923077</v>
       </c>
       <c r="D5">
-        <v>0.4077285236003979</v>
+        <v>0.4655653799910069</v>
+      </c>
+      <c r="E5">
+        <v>0.03132884898426522</v>
+      </c>
+      <c r="F5">
+        <v>0.03156045761990818</v>
       </c>
       <c r="G5">
-        <v>1.100639157626105</v>
+        <v>1.087244255812403</v>
       </c>
       <c r="H5">
-        <v>7.39309523046875</v>
+        <v>7.206988289262821</v>
       </c>
       <c r="I5">
-        <v>0.07393095230468749</v>
+        <v>0.07206988289262822</v>
       </c>
       <c r="J5">
-        <v>0.1399693017622538</v>
+        <v>0.1373045382413724</v>
       </c>
       <c r="K5">
-        <v>0.1465843669324058</v>
+        <v>0.1499991466999299</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6796875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>1995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="O5">
+        <v>0.3076923076923077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>9244.125748502995</v>
+        <v>6855.66371681416</v>
       </c>
       <c r="D6">
-        <v>0.08906135528013751</v>
+        <v>-0.998412125365197</v>
+      </c>
+      <c r="E6">
+        <v>0.03117148914547449</v>
+      </c>
+      <c r="F6">
+        <v>0.03151752678348871</v>
       </c>
       <c r="G6">
-        <v>1.135671916978157</v>
+        <v>1.078993584959139</v>
       </c>
       <c r="H6">
-        <v>6.906474124750498</v>
+        <v>7.745231290560471</v>
       </c>
       <c r="I6">
-        <v>0.06906474124750499</v>
+        <v>0.07745231290560473</v>
       </c>
       <c r="J6">
-        <v>0.1372050562661944</v>
+        <v>0.1421919280031531</v>
       </c>
       <c r="K6">
-        <v>0.1073820398644604</v>
+        <v>0.1485183951697089</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2874251497005988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.07079646017699115</v>
+      </c>
+      <c r="O6">
+        <v>0.3805309734513274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8943.473372781065</v>
+        <v>6814.24</v>
       </c>
       <c r="D7">
-        <v>0.0906304388402875</v>
+        <v>0.440792751198531</v>
+      </c>
+      <c r="E7">
+        <v>0.03073822354041225</v>
+      </c>
+      <c r="F7">
+        <v>0.03139336913263834</v>
       </c>
       <c r="G7">
-        <v>1.153828380347913</v>
+        <v>1.100735015521639</v>
       </c>
       <c r="H7">
-        <v>6.362223818047338</v>
+        <v>7.394366916666667</v>
       </c>
       <c r="I7">
-        <v>0.06362223818047338</v>
+        <v>0.07394366916666667</v>
       </c>
       <c r="J7">
-        <v>0.1328519410013481</v>
+        <v>0.139987770097965</v>
       </c>
       <c r="K7">
-        <v>0.1061675707921985</v>
+        <v>0.146773049084435</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3846153846153846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.064</v>
+      </c>
+      <c r="O7">
+        <v>0.472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>1995</v>
+      </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>8991.422857142858</v>
+        <v>8884.299999999999</v>
       </c>
       <c r="D8">
-        <v>0.1859875400453823</v>
+        <v>-0.03574412000418835</v>
+      </c>
+      <c r="E8">
+        <v>0.03061484594729983</v>
+      </c>
+      <c r="F8">
+        <v>0.03142224599030142</v>
       </c>
       <c r="G8">
-        <v>1.131494454376581</v>
+        <v>1.143913905749413</v>
       </c>
       <c r="H8">
-        <v>5.892303268571429</v>
+        <v>6.9162512515625</v>
       </c>
       <c r="I8">
-        <v>0.05892303268571428</v>
+        <v>0.069162512515625</v>
       </c>
       <c r="J8">
-        <v>0.1268126999483091</v>
+        <v>0.1377973468605898</v>
       </c>
       <c r="K8">
-        <v>0.1040380141472276</v>
+        <v>0.108177602398728</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.05</v>
+      </c>
+      <c r="O8">
+        <v>0.31875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>9607.544943820225</v>
+        <v>8488.284810126583</v>
       </c>
       <c r="D9">
-        <v>0.3283835429787057</v>
+        <v>0.1642976826996635</v>
+      </c>
+      <c r="E9">
+        <v>0.03064395404083886</v>
+      </c>
+      <c r="F9">
+        <v>0.03151883545478152</v>
       </c>
       <c r="G9">
-        <v>1.0881306986655</v>
+        <v>1.145120673335102</v>
       </c>
       <c r="H9">
-        <v>6.022155606273408</v>
+        <v>6.364144171940929</v>
       </c>
       <c r="I9">
-        <v>0.06022155606273408</v>
+        <v>0.06364144171940929</v>
       </c>
       <c r="J9">
-        <v>0.1255093979826641</v>
+        <v>0.1323486821195154</v>
       </c>
       <c r="K9">
-        <v>0.1046127721950324</v>
+        <v>0.1068010437514748</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6910112359550562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1">
-        <v>1996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="O9">
+        <v>0.310126582278481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>10037.38983050847</v>
+        <v>8510.908536585366</v>
       </c>
       <c r="D10">
-        <v>0.04643721601451623</v>
+        <v>-0.0705913417604782</v>
+      </c>
+      <c r="E10">
+        <v>0.03072473240820082</v>
+      </c>
+      <c r="F10">
+        <v>0.03163681366696912</v>
       </c>
       <c r="G10">
-        <v>1.031648093494389</v>
+        <v>1.11624298821753</v>
       </c>
       <c r="H10">
-        <v>6.606080619585687</v>
+        <v>5.892567202235772</v>
       </c>
       <c r="I10">
-        <v>0.06606080619585687</v>
+        <v>0.05892567202235772</v>
       </c>
       <c r="J10">
-        <v>0.1279596918055202</v>
+        <v>0.1259002513154096</v>
       </c>
       <c r="K10">
-        <v>0.1220476120748003</v>
+        <v>0.1046409238850418</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2937853107344633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="O10">
+        <v>0.4268292682926829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>7588.874074074074</v>
+        <v>8854.325301204819</v>
       </c>
       <c r="D11">
-        <v>0.4239421968576176</v>
+        <v>0.4461842789365218</v>
+      </c>
+      <c r="E11">
+        <v>0.03115297372279668</v>
+      </c>
+      <c r="F11">
+        <v>0.03222998560502056</v>
       </c>
       <c r="G11">
-        <v>1.02004061507934</v>
+        <v>1.082893648897176</v>
       </c>
       <c r="H11">
-        <v>6.76861752345679</v>
+        <v>6.02229015813253</v>
       </c>
       <c r="I11">
-        <v>0.06768617523456791</v>
+        <v>0.0602229015813253</v>
       </c>
       <c r="J11">
-        <v>0.1288886121393283</v>
+        <v>0.1251965205151559</v>
       </c>
       <c r="K11">
-        <v>0.1392789528595891</v>
+        <v>0.1053603427378827</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3703703703703703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.04819277108433735</v>
+      </c>
+      <c r="O11">
+        <v>0.5180722891566265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>1996</v>
+      </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>7586.601503759399</v>
+        <v>9003.777108433735</v>
       </c>
       <c r="D12">
-        <v>-0.21800226433133</v>
+        <v>-0.01362788789007361</v>
+      </c>
+      <c r="E12">
+        <v>0.03141490191405361</v>
+      </c>
+      <c r="F12">
+        <v>0.03234308257865557</v>
       </c>
       <c r="G12">
-        <v>1.005849858253051</v>
+        <v>1.031517247973899</v>
       </c>
       <c r="H12">
-        <v>6.43235588972431</v>
+        <v>6.608997732931726</v>
       </c>
       <c r="I12">
-        <v>0.0643235588972431</v>
+        <v>0.06608997732931728</v>
       </c>
       <c r="J12">
-        <v>0.1246745503924262</v>
+        <v>0.1279810122077512</v>
       </c>
       <c r="K12">
-        <v>0.1420667599334062</v>
+        <v>0.1239193507560501</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.04819277108433735</v>
+      </c>
+      <c r="O12">
+        <v>0.3072289156626506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7646.431818181818</v>
+        <v>6817.679389312977</v>
       </c>
       <c r="D13">
-        <v>0.16611187086388</v>
+        <v>-0.008996917163952007</v>
       </c>
       <c r="E13">
-        <v>0.08021845618644491</v>
+        <v>0.03154515925492549</v>
       </c>
       <c r="F13">
-        <v>0.08021845618644491</v>
+        <v>0.03206237363178947</v>
       </c>
       <c r="G13">
-        <v>0.9649252606649008</v>
+        <v>1.010479085068337</v>
       </c>
       <c r="H13">
-        <v>6.508239898989899</v>
+        <v>6.768598211195928</v>
       </c>
       <c r="I13">
-        <v>0.06508239898989898</v>
+        <v>0.06768598211195928</v>
       </c>
       <c r="J13">
-        <v>0.122977914629793</v>
+        <v>0.1283147272160595</v>
       </c>
       <c r="K13">
-        <v>0.1429370326722309</v>
+        <v>0.1397791448598029</v>
       </c>
       <c r="L13">
-        <v>0.007575757575757576</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6893939393939394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1">
-        <v>1997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.06106870229007633</v>
+      </c>
+      <c r="O13">
+        <v>0.3969465648854962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>7646.431818181818</v>
+        <v>6857.123076923077</v>
       </c>
       <c r="D14">
-        <v>-0.01950117654458215</v>
+        <v>4.83422366322685</v>
       </c>
       <c r="E14">
-        <v>0.08132090081081851</v>
+        <v>0.03207064481208017</v>
       </c>
       <c r="F14">
-        <v>0.07669627022114633</v>
+        <v>0.03223831736995519</v>
       </c>
       <c r="G14">
-        <v>0.9391333544293714</v>
+        <v>1.015077443338239</v>
       </c>
       <c r="H14">
-        <v>6.710407828282829</v>
+        <v>6.433979487179486</v>
       </c>
       <c r="I14">
-        <v>0.06710407828282829</v>
+        <v>0.06433979487179488</v>
       </c>
       <c r="J14">
-        <v>0.1234520795485906</v>
+        <v>0.1252444414720892</v>
       </c>
       <c r="K14">
-        <v>0.1419216594612103</v>
+        <v>0.1422701699449638</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="O14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>7591.962686567164</v>
+        <v>6912.68992248062</v>
       </c>
       <c r="D15">
-        <v>0.03180579146060174</v>
+        <v>0.2093721084361939</v>
       </c>
       <c r="E15">
-        <v>0.08057928663999187</v>
+        <v>0.06351413944293578</v>
       </c>
       <c r="F15">
-        <v>0.0751599020273387</v>
+        <v>0.06363812726077138</v>
       </c>
       <c r="G15">
-        <v>0.9414355059588383</v>
+        <v>0.97277433920139</v>
       </c>
       <c r="H15">
-        <v>6.331529850746269</v>
+        <v>6.508714470284239</v>
       </c>
       <c r="I15">
-        <v>0.06331529850746269</v>
+        <v>0.06508714470284238</v>
       </c>
       <c r="J15">
-        <v>0.119801428864993</v>
+        <v>0.1234536050549258</v>
       </c>
       <c r="K15">
-        <v>0.1416436339541498</v>
+        <v>0.1432029829776862</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.373134328358209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
+        <v>0.007751937984496124</v>
+      </c>
+      <c r="N15">
+        <v>0.08527131782945736</v>
+      </c>
+      <c r="O15">
+        <v>0.5348837209302325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>1997</v>
+      </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>7621.235294117647</v>
+        <v>6912.68992248062</v>
       </c>
       <c r="D16">
-        <v>0.1721151822382955</v>
+        <v>-0.3541154980249611</v>
       </c>
       <c r="E16">
-        <v>0.2591482920566567</v>
+        <v>0.06416940713147239</v>
       </c>
       <c r="F16">
-        <v>0.2562259429635851</v>
+        <v>0.06212918389579355</v>
       </c>
       <c r="G16">
-        <v>0.9235902157272219</v>
+        <v>0.9424119447149888</v>
       </c>
       <c r="H16">
-        <v>6.018409313725491</v>
+        <v>6.709262273901809</v>
       </c>
       <c r="I16">
-        <v>0.06018409313725489</v>
+        <v>0.06709262273901809</v>
       </c>
       <c r="J16">
-        <v>0.1155995060808882</v>
+        <v>0.1236373394219174</v>
       </c>
       <c r="K16">
-        <v>0.1411344460576915</v>
+        <v>0.1421976631287315</v>
       </c>
       <c r="L16">
-        <v>0.08823529411764706</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.5441176470588235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.007751937984496124</v>
+      </c>
+      <c r="N16">
+        <v>0.08527131782945736</v>
+      </c>
+      <c r="O16">
+        <v>0.2868217054263566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>7621.235294117647</v>
+        <v>6868.175572519084</v>
       </c>
       <c r="D17">
-        <v>0.3587468981085174</v>
+        <v>1.952054375472886</v>
       </c>
       <c r="E17">
-        <v>0.2117172782083435</v>
+        <v>0.06402795594495121</v>
       </c>
       <c r="F17">
-        <v>0.2134408750905138</v>
+        <v>0.06188467179531768</v>
       </c>
       <c r="G17">
-        <v>0.9117808279726652</v>
+        <v>0.9389644515399261</v>
       </c>
       <c r="H17">
-        <v>5.69440931372549</v>
+        <v>6.332641221374046</v>
       </c>
       <c r="I17">
-        <v>0.0569440931372549</v>
+        <v>0.06332641221374047</v>
       </c>
       <c r="J17">
-        <v>0.1116509428156148</v>
+        <v>0.119664279306136</v>
       </c>
       <c r="K17">
-        <v>0.1403633481640871</v>
+        <v>0.1419333602914972</v>
       </c>
       <c r="L17">
-        <v>0.1176470588235294</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.6691176470588235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1">
-        <v>1998</v>
-      </c>
+        <v>0.007633587786259542</v>
+      </c>
+      <c r="N17">
+        <v>0.08396946564885496</v>
+      </c>
+      <c r="O17">
+        <v>0.3435114503816794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1"/>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>8363.589928057554</v>
+        <v>6908.992481203008</v>
       </c>
       <c r="D18">
-        <v>-0.03568664599302503</v>
+        <v>0.2398269715760689</v>
       </c>
       <c r="E18">
-        <v>0.1801418895935407</v>
+        <v>0.06422440532499125</v>
       </c>
       <c r="F18">
-        <v>0.1800981409944552</v>
+        <v>0.06137356546488944</v>
       </c>
       <c r="G18">
-        <v>0.9066020688938586</v>
+        <v>0.9224524571877457</v>
       </c>
       <c r="H18">
-        <v>5.645350119904077</v>
+        <v>6.020271929824561</v>
       </c>
       <c r="I18">
-        <v>0.05645350119904077</v>
+        <v>0.0602027192982456</v>
       </c>
       <c r="J18">
-        <v>0.1108496253326723</v>
+        <v>0.1155498667295104</v>
       </c>
       <c r="K18">
-        <v>0.1397282439643975</v>
+        <v>0.141427327256731</v>
       </c>
       <c r="L18">
-        <v>0.1151079136690648</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M18">
-        <v>0.1510791366906475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.01503759398496241</v>
+      </c>
+      <c r="N18">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="O18">
+        <v>0.481203007518797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>9056.457142857143</v>
+        <v>6881.597014925374</v>
       </c>
       <c r="D19">
-        <v>0.007283797432998382</v>
+        <v>-0.7558980910536508</v>
       </c>
       <c r="E19">
-        <v>0.1639076323559908</v>
+        <v>0.06717252130640051</v>
       </c>
       <c r="F19">
-        <v>0.1628386383080775</v>
+        <v>0.06596667625235826</v>
       </c>
       <c r="G19">
-        <v>0.9165014400351883</v>
+        <v>0.9120796631278383</v>
       </c>
       <c r="H19">
-        <v>5.343410714285715</v>
+        <v>5.695477611940298</v>
       </c>
       <c r="I19">
-        <v>0.05343410714285714</v>
+        <v>0.05695477611940299</v>
       </c>
       <c r="J19">
-        <v>0.1084241935449684</v>
+        <v>0.1116795559070733</v>
       </c>
       <c r="K19">
-        <v>0.1389827388916266</v>
+        <v>0.1405016475303784</v>
       </c>
       <c r="L19">
-        <v>0.1214285714285714</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="M19">
-        <v>0.2785714285714286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1"/>
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="N19">
+        <v>0.2014925373134328</v>
+      </c>
+      <c r="O19">
+        <v>0.4701492537313433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>1998</v>
+      </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>9197.404255319148</v>
+        <v>7650.985401459854</v>
       </c>
       <c r="D20">
-        <v>0.1202097844853287</v>
+        <v>-0.2055945145803302</v>
       </c>
       <c r="E20">
-        <v>0.1940733783400453</v>
+        <v>0.05014189777557173</v>
       </c>
       <c r="F20">
-        <v>0.1944924016264843</v>
+        <v>0.05981010581731853</v>
       </c>
       <c r="G20">
-        <v>0.948363999719109</v>
+        <v>0.9075398292575807</v>
       </c>
       <c r="H20">
-        <v>4.70272695035461</v>
+        <v>5.645639902676399</v>
       </c>
       <c r="I20">
-        <v>0.0470272695035461</v>
+        <v>0.05645639902676399</v>
       </c>
       <c r="J20">
-        <v>0.1039291094866926</v>
+        <v>0.1109087887822188</v>
       </c>
       <c r="K20">
-        <v>0.1379737374343102</v>
+        <v>0.139880962964966</v>
       </c>
       <c r="L20">
-        <v>0.3262411347517731</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="M20">
-        <v>0.475177304964539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.08029197080291971</v>
+      </c>
+      <c r="N20">
+        <v>0.2043795620437956</v>
+      </c>
+      <c r="O20">
+        <v>0.1897810218978102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>9126.668965517241</v>
+        <v>8432.268115942028</v>
       </c>
       <c r="D21">
-        <v>0.3225227363780053</v>
+        <v>0.01259352350229052</v>
       </c>
       <c r="E21">
-        <v>0.1863488983636097</v>
+        <v>6.094864583736932</v>
       </c>
       <c r="F21">
-        <v>0.1925548566132135</v>
+        <v>5.96359206149661</v>
       </c>
       <c r="G21">
-        <v>0.9359445296636497</v>
+        <v>0.9205873862712278</v>
       </c>
       <c r="H21">
-        <v>4.888091954022988</v>
+        <v>5.343962560386474</v>
       </c>
       <c r="I21">
-        <v>0.04888091954022988</v>
+        <v>0.05343962560386473</v>
       </c>
       <c r="J21">
-        <v>0.1050375913200489</v>
+        <v>0.1086748687801384</v>
       </c>
       <c r="K21">
-        <v>0.1362357086936541</v>
+        <v>0.139145338622752</v>
       </c>
       <c r="L21">
-        <v>0.3379310344827586</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="M21">
-        <v>0.6068965517241379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1">
-        <v>1999</v>
-      </c>
+        <v>0.1014492753623188</v>
+      </c>
+      <c r="N21">
+        <v>0.2101449275362319</v>
+      </c>
+      <c r="O21">
+        <v>0.3043478260869565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1"/>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>12885.51776649746</v>
+        <v>8579.73381294964</v>
       </c>
       <c r="D22">
-        <v>0.03029169282463555</v>
+        <v>-0.6091003331759499</v>
       </c>
       <c r="E22">
-        <v>0.1781748918670735</v>
+        <v>5.732247902681338</v>
       </c>
       <c r="F22">
-        <v>0.180097555922758</v>
+        <v>5.368167542720293</v>
       </c>
       <c r="G22">
-        <v>0.9476568512553225</v>
+        <v>0.9609235973291025</v>
       </c>
       <c r="H22">
-        <v>5.264859560067682</v>
+        <v>4.704497601918466</v>
       </c>
       <c r="I22">
-        <v>0.05264859560067682</v>
+        <v>0.04704497601918466</v>
       </c>
       <c r="J22">
-        <v>0.1095080066759962</v>
+        <v>0.1047003918589308</v>
       </c>
       <c r="K22">
-        <v>0.11875541118062</v>
+        <v>0.1381670057932091</v>
       </c>
       <c r="L22">
-        <v>0.3045685279187818</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="M22">
-        <v>0.2182741116751269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.1079136690647482</v>
+      </c>
+      <c r="N22">
+        <v>0.223021582733813</v>
+      </c>
+      <c r="O22">
+        <v>0.3956834532374101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>13613.72277227723</v>
+        <v>8504.411347517731</v>
       </c>
       <c r="D23">
-        <v>0.1429571963028417</v>
+        <v>0.0619589057675443</v>
       </c>
       <c r="E23">
-        <v>0.188598807418061</v>
+        <v>2.328110610492261</v>
       </c>
       <c r="F23">
-        <v>0.1852521483825334</v>
+        <v>2.191899700149676</v>
       </c>
       <c r="G23">
-        <v>0.9601804246369076</v>
+        <v>0.944080442268257</v>
       </c>
       <c r="H23">
-        <v>5.80397400990099</v>
+        <v>4.885385342789597</v>
       </c>
       <c r="I23">
-        <v>0.05803974009900989</v>
+        <v>0.04885385342789598</v>
       </c>
       <c r="J23">
-        <v>0.1156505655772244</v>
+        <v>0.1054986799639914</v>
       </c>
       <c r="K23">
-        <v>0.108002706004435</v>
+        <v>0.1366752778158888</v>
       </c>
       <c r="L23">
-        <v>0.3415841584158416</v>
+        <v>0.3305084745762712</v>
       </c>
       <c r="M23">
-        <v>0.4653465346534654</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1"/>
+        <v>0.2765957446808511</v>
+      </c>
+      <c r="N23">
+        <v>0.5602836879432624</v>
+      </c>
+      <c r="O23">
+        <v>0.4609929078014184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>1999</v>
+      </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>13612.44278606965</v>
+        <v>11672.01092896175</v>
       </c>
       <c r="D24">
-        <v>0.456117427379305</v>
+        <v>-0.1740522066553291</v>
       </c>
       <c r="E24">
-        <v>0.1511949492217493</v>
+        <v>2.071870849693351</v>
       </c>
       <c r="F24">
-        <v>0.1825264586018275</v>
+        <v>1.892461413134324</v>
       </c>
       <c r="G24">
-        <v>0.9521163379704535</v>
+        <v>0.9527014883431789</v>
       </c>
       <c r="H24">
-        <v>5.959680762852404</v>
+        <v>5.256438069216758</v>
       </c>
       <c r="I24">
-        <v>0.05959680762852405</v>
+        <v>0.05256438069216757</v>
       </c>
       <c r="J24">
-        <v>0.1167237879067513</v>
+        <v>0.1097264699927583</v>
       </c>
       <c r="K24">
-        <v>0.111983686646225</v>
+        <v>0.1201836758736311</v>
       </c>
       <c r="L24">
-        <v>0.3283582089552239</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="M24">
-        <v>0.6069651741293532</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.2513661202185792</v>
+      </c>
+      <c r="N24">
+        <v>0.4699453551912569</v>
+      </c>
+      <c r="O24">
+        <v>0.273224043715847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>9156.523809523809</v>
+        <v>12527.36898395722</v>
       </c>
       <c r="D25">
-        <v>1.276461831484683</v>
+        <v>-0.1614093474929534</v>
       </c>
       <c r="E25">
-        <v>0.1767116282105616</v>
+        <v>2.056462147502056</v>
       </c>
       <c r="F25">
-        <v>0.2146824318989954</v>
+        <v>1.807271335092896</v>
       </c>
       <c r="G25">
-        <v>0.9439955380255396</v>
+        <v>0.9639460895410822</v>
       </c>
       <c r="H25">
-        <v>6.41395918367347</v>
+        <v>5.800053921568627</v>
       </c>
       <c r="I25">
-        <v>0.06413959183673471</v>
+        <v>0.05800053921568627</v>
       </c>
       <c r="J25">
-        <v>0.1207793241182671</v>
+        <v>0.1158373045881512</v>
       </c>
       <c r="K25">
-        <v>0.1297079823243597</v>
+        <v>0.1088496040746494</v>
       </c>
       <c r="L25">
-        <v>0.3877551020408163</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="M25">
-        <v>0.7210884353741497</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1">
-        <v>2000</v>
-      </c>
+        <v>0.2566844919786097</v>
+      </c>
+      <c r="N25">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="O25">
+        <v>0.4064171122994653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1"/>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>9187.261744966443</v>
+        <v>12488.77005347594</v>
       </c>
       <c r="D26">
-        <v>0.0312528148851603</v>
+        <v>0.2732341572019872</v>
       </c>
       <c r="E26">
-        <v>0.1695217694123049</v>
+        <v>2.069606146887447</v>
       </c>
       <c r="F26">
-        <v>0.2021616838874157</v>
+        <v>1.820098416712919</v>
       </c>
       <c r="G26">
-        <v>0.9575549782790976</v>
+        <v>0.9549498377106357</v>
       </c>
       <c r="H26">
-        <v>6.162624161073825</v>
+        <v>5.959436720142602</v>
       </c>
       <c r="I26">
-        <v>0.06162624161073825</v>
+        <v>0.05959436720142603</v>
       </c>
       <c r="J26">
-        <v>0.1190795403074841</v>
+        <v>0.1168913574640641</v>
       </c>
       <c r="K26">
-        <v>0.1323550200147405</v>
+        <v>0.1130229926480281</v>
       </c>
       <c r="L26">
-        <v>0.3624161073825503</v>
+        <v>0.3358208955223881</v>
       </c>
       <c r="M26">
-        <v>0.1879194630872483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.2406417112299465</v>
+      </c>
+      <c r="N26">
+        <v>0.4759358288770054</v>
+      </c>
+      <c r="O26">
+        <v>0.5240641711229946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>9493.603773584906</v>
+        <v>8569.570422535211</v>
       </c>
       <c r="D27">
-        <v>0.06675728446081666</v>
+        <v>2.287903062394627</v>
       </c>
       <c r="E27">
-        <v>0.1848309617393596</v>
+        <v>2.259690382726319</v>
       </c>
       <c r="F27">
-        <v>0.2129590027674279</v>
+        <v>1.949001850503086</v>
       </c>
       <c r="G27">
-        <v>0.9521449281024896</v>
+        <v>0.9442373461544492</v>
       </c>
       <c r="H27">
-        <v>5.93622786163522</v>
+        <v>6.416295774647888</v>
       </c>
       <c r="I27">
-        <v>0.0593622786163522</v>
+        <v>0.06416295774647887</v>
       </c>
       <c r="J27">
-        <v>0.1164909743025016</v>
+        <v>0.1208171985157458</v>
       </c>
       <c r="K27">
-        <v>0.1332803676336779</v>
+        <v>0.129892698894186</v>
       </c>
       <c r="L27">
-        <v>0.3836477987421384</v>
+        <v>0.3228346456692913</v>
       </c>
       <c r="M27">
-        <v>0.4025157232704403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1"/>
+        <v>0.2887323943661972</v>
+      </c>
+      <c r="N27">
+        <v>0.6056338028169014</v>
+      </c>
+      <c r="O27">
+        <v>0.5704225352112676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>2000</v>
+      </c>
       <c r="B28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>10202.10365853659</v>
+        <v>8583.841379310345</v>
       </c>
       <c r="D28">
-        <v>0.168843612834223</v>
+        <v>1.566270713472368</v>
       </c>
       <c r="E28">
-        <v>0.1337189876150899</v>
+        <v>2.279118780574744</v>
       </c>
       <c r="F28">
-        <v>0.1722518214506347</v>
+        <v>1.914356344229118</v>
       </c>
       <c r="G28">
-        <v>0.9232971053371689</v>
+        <v>0.9592658756755388</v>
       </c>
       <c r="H28">
-        <v>5.504757406504066</v>
+        <v>6.164455172413793</v>
       </c>
       <c r="I28">
-        <v>0.05504757406504066</v>
+        <v>0.06164455172413792</v>
       </c>
       <c r="J28">
-        <v>0.1104454003852708</v>
+        <v>0.1192005042646703</v>
       </c>
       <c r="K28">
-        <v>0.1324479689864888</v>
+        <v>0.1325318840896042</v>
       </c>
       <c r="L28">
-        <v>0.3841463414634146</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="M28">
-        <v>0.5792682926829268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.303448275862069</v>
+      </c>
+      <c r="N28">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="O28">
+        <v>0.2551724137931035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>10191.64375</v>
+        <v>8971.396103896104</v>
       </c>
       <c r="D29">
-        <v>0.3239285122979373</v>
+        <v>-0.06501864622020499</v>
       </c>
       <c r="E29">
-        <v>0.126774353644256</v>
+        <v>2.102481073958981</v>
       </c>
       <c r="F29">
-        <v>0.1734435087524347</v>
+        <v>1.728891585427818</v>
       </c>
       <c r="G29">
-        <v>0.8856981484969673</v>
+        <v>0.9538495581452523</v>
       </c>
       <c r="H29">
-        <v>5.071613387499999</v>
+        <v>5.940239290043291</v>
       </c>
       <c r="I29">
-        <v>0.05071613387499999</v>
+        <v>0.0594023929004329</v>
       </c>
       <c r="J29">
-        <v>0.103858022784818</v>
+        <v>0.116633366389148</v>
       </c>
       <c r="K29">
-        <v>0.1310648205691932</v>
+        <v>0.1334917757186414</v>
       </c>
       <c r="L29">
-        <v>0.3875</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="M29">
-        <v>0.73125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1">
-        <v>2001</v>
-      </c>
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="N29">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O29">
+        <v>0.4155844155844156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1"/>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>9535.18652849741</v>
+        <v>9738.188679245282</v>
       </c>
       <c r="D30">
-        <v>0.01369417048622515</v>
+        <v>-0.9280559833239836</v>
       </c>
       <c r="E30">
-        <v>0.1333574870789762</v>
+        <v>2.098184258890873</v>
       </c>
       <c r="F30">
-        <v>0.1719008895969881</v>
+        <v>1.703693098113727</v>
       </c>
       <c r="G30">
-        <v>0.7555121285969217</v>
+        <v>0.9191165605340822</v>
       </c>
       <c r="H30">
-        <v>5.337357823834196</v>
+        <v>5.506774289308177</v>
       </c>
       <c r="I30">
-        <v>0.05337357823834197</v>
+        <v>0.05506774289308177</v>
       </c>
       <c r="J30">
-        <v>0.09870430595415726</v>
+        <v>0.1102147365251267</v>
       </c>
       <c r="K30">
-        <v>0.1245412311450896</v>
+        <v>0.1324282189830782</v>
       </c>
       <c r="L30">
-        <v>0.3367875647668394</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="M30">
-        <v>0.2538860103626943</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.3144654088050314</v>
+      </c>
+      <c r="N30">
+        <v>0.5660377358490566</v>
+      </c>
+      <c r="O30">
+        <v>0.4339622641509434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>10118.6329787234</v>
+        <v>9770.863636363636</v>
       </c>
       <c r="D31">
-        <v>0.04590519064669109</v>
+        <v>-4.339315212077675</v>
       </c>
       <c r="E31">
-        <v>0.1302488863024525</v>
+        <v>1.820217800400191</v>
       </c>
       <c r="F31">
-        <v>0.1710265668658748</v>
+        <v>1.514823894159594</v>
       </c>
       <c r="G31">
-        <v>0.7005106092196665</v>
+        <v>0.8825185390357533</v>
       </c>
       <c r="H31">
-        <v>4.851813552304964</v>
+        <v>5.069712632034632</v>
       </c>
       <c r="I31">
-        <v>0.04851813552304964</v>
+        <v>0.05069712632034631</v>
       </c>
       <c r="J31">
-        <v>0.09054877207622963</v>
+        <v>0.1036482386624915</v>
       </c>
       <c r="K31">
-        <v>0.1221190228206789</v>
+        <v>0.1310060422516477</v>
       </c>
       <c r="L31">
-        <v>0.3351063829787234</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="M31">
-        <v>0.3936170212765958</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1"/>
+        <v>0.3116883116883117</v>
+      </c>
+      <c r="N31">
+        <v>0.5844155844155844</v>
+      </c>
+      <c r="O31">
+        <v>0.512987012987013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>2001</v>
+      </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>10118.84042553191</v>
+        <v>9167.598930481283</v>
       </c>
       <c r="D32">
-        <v>0.1925728025005874</v>
+        <v>0.09761246057047755</v>
       </c>
       <c r="E32">
-        <v>0.1826255980516663</v>
+        <v>1.777299608874862</v>
       </c>
       <c r="F32">
-        <v>0.2125514148910958</v>
+        <v>1.443565711766768</v>
       </c>
       <c r="G32">
-        <v>0.7079134953281798</v>
+        <v>0.750210434493789</v>
       </c>
       <c r="H32">
-        <v>4.572200648049645</v>
+        <v>5.34118695543672</v>
       </c>
       <c r="I32">
-        <v>0.04572200648049645</v>
+        <v>0.0534118695543672</v>
       </c>
       <c r="J32">
-        <v>0.08819681620018724</v>
+        <v>0.09842449562399454</v>
       </c>
       <c r="K32">
-        <v>0.1209881311495627</v>
+        <v>0.1243220015055182</v>
       </c>
       <c r="L32">
-        <v>0.3457446808510639</v>
+        <v>0.3687943262411347</v>
       </c>
       <c r="M32">
-        <v>0.526595744680851</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.2780748663101604</v>
+      </c>
+      <c r="N32">
+        <v>0.4759358288770054</v>
+      </c>
+      <c r="O32">
+        <v>0.3155080213903743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>10380.24338624339</v>
+        <v>9790.276243093922</v>
       </c>
       <c r="D33">
-        <v>0.3305441526771165</v>
+        <v>1.308174260651115</v>
       </c>
       <c r="E33">
-        <v>0.1904986115166644</v>
+        <v>2.039033291017749</v>
       </c>
       <c r="F33">
-        <v>0.222489002868846</v>
+        <v>1.650740874419329</v>
       </c>
       <c r="G33">
-        <v>0.680418590881363</v>
+        <v>0.6988348402693364</v>
       </c>
       <c r="H33">
-        <v>4.946640490299824</v>
+        <v>4.851650226519337</v>
       </c>
       <c r="I33">
-        <v>0.04946640490299824</v>
+        <v>0.04851650226519336</v>
       </c>
       <c r="J33">
-        <v>0.09029152035588003</v>
+        <v>0.09044659268135356</v>
       </c>
       <c r="K33">
-        <v>0.1197264635904626</v>
+        <v>0.1221092223303534</v>
       </c>
       <c r="L33">
-        <v>0.3703703703703703</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="M33">
-        <v>0.656084656084656</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1">
-        <v>2002</v>
-      </c>
+        <v>0.287292817679558</v>
+      </c>
+      <c r="N33">
+        <v>0.4475138121546962</v>
+      </c>
+      <c r="O33">
+        <v>0.3425414364640884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1"/>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>11017.59067357513</v>
+        <v>9754.395604395604</v>
       </c>
       <c r="D34">
-        <v>0.01281820749227062</v>
+        <v>-1.403232656081535</v>
       </c>
       <c r="E34">
-        <v>0.2175002701982459</v>
+        <v>2.002374323002924</v>
       </c>
       <c r="F34">
-        <v>0.2383274511906086</v>
+        <v>1.592896290415918</v>
       </c>
       <c r="G34">
-        <v>0.6881078395807179</v>
+        <v>0.7090109305226352</v>
       </c>
       <c r="H34">
-        <v>4.92302354835924</v>
+        <v>4.570298913003662</v>
       </c>
       <c r="I34">
-        <v>0.04923023548359241</v>
+        <v>0.04570298913003663</v>
       </c>
       <c r="J34">
-        <v>0.09051670585843548</v>
+        <v>0.08824364496139475</v>
       </c>
       <c r="K34">
-        <v>0.1187783279231061</v>
+        <v>0.1209677590598276</v>
       </c>
       <c r="L34">
-        <v>0.3782383419689119</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="M34">
-        <v>0.2746113989637305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N34">
+        <v>0.445054945054945</v>
+      </c>
+      <c r="O34">
+        <v>0.4725274725274725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>8921.581632653062</v>
+        <v>10026.3606557377</v>
       </c>
       <c r="D35">
-        <v>0.1131694658210065</v>
+        <v>5.893907085464849</v>
       </c>
       <c r="E35">
-        <v>0.1558721925613449</v>
+        <v>0.3917555580890535</v>
       </c>
       <c r="F35">
-        <v>0.1745456472446544</v>
+        <v>1.77167597947624</v>
       </c>
       <c r="G35">
-        <v>0.7230334313011593</v>
+        <v>0.6806757066975044</v>
       </c>
       <c r="H35">
-        <v>4.359559962585035</v>
+        <v>4.948080423497268</v>
       </c>
       <c r="I35">
-        <v>0.04359559962585034</v>
+        <v>0.04948080423497268</v>
       </c>
       <c r="J35">
-        <v>0.08697760550391991</v>
+        <v>0.09032134663682294</v>
       </c>
       <c r="K35">
-        <v>0.1172885639296398</v>
+        <v>0.119708132837923</v>
       </c>
       <c r="L35">
-        <v>0.3826530612244898</v>
+        <v>0.4104477611940299</v>
       </c>
       <c r="M35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1"/>
+        <v>0.3005464480874317</v>
+      </c>
+      <c r="N35">
+        <v>0.4316939890710382</v>
+      </c>
+      <c r="O35">
+        <v>0.5355191256830601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>2002</v>
+      </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>8973.303482587065</v>
+        <v>10731.89247311828</v>
       </c>
       <c r="D36">
-        <v>0.1500639138230886</v>
+        <v>2.221900942002368</v>
       </c>
       <c r="E36">
-        <v>0.1364031601903651</v>
+        <v>0.4207666810408397</v>
       </c>
       <c r="F36">
-        <v>0.1572666398938325</v>
+        <v>1.722311904784582</v>
       </c>
       <c r="G36">
-        <v>0.7368718649432955</v>
+        <v>0.6889723136829523</v>
       </c>
       <c r="H36">
-        <v>3.975976876451078</v>
+        <v>4.924576943548387</v>
       </c>
       <c r="I36">
-        <v>0.03975976876451078</v>
+        <v>0.04924576943548387</v>
       </c>
       <c r="J36">
-        <v>0.08397208066110849</v>
+        <v>0.090584108256461</v>
       </c>
       <c r="K36">
-        <v>0.1155983788576225</v>
+        <v>0.118793025823867</v>
       </c>
       <c r="L36">
-        <v>0.3830845771144278</v>
+        <v>0.4233576642335766</v>
       </c>
       <c r="M36">
-        <v>0.6517412935323383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.3118279569892473</v>
+      </c>
+      <c r="N36">
+        <v>0.4247311827956989</v>
+      </c>
+      <c r="O36">
+        <v>0.3655913978494624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>8945.926829268292</v>
+        <v>8583.271276595744</v>
       </c>
       <c r="D37">
-        <v>0.3351803945476689</v>
+        <v>0.2113751658339519</v>
       </c>
       <c r="E37">
-        <v>0.1234636376187673</v>
+        <v>0.2650529118161826</v>
       </c>
       <c r="F37">
-        <v>0.1479595055140795</v>
+        <v>1.550177112381198</v>
       </c>
       <c r="G37">
-        <v>0.7578853604989525</v>
+        <v>0.730484784418206</v>
       </c>
       <c r="H37">
-        <v>3.849619917073171</v>
+        <v>4.360568590425532</v>
       </c>
       <c r="I37">
-        <v>0.03849619917073171</v>
+        <v>0.04360568590425532</v>
       </c>
       <c r="J37">
-        <v>0.08396932080066885</v>
+        <v>0.08743477296934768</v>
       </c>
       <c r="K37">
-        <v>0.1149493145077093</v>
+        <v>0.1173130886872106</v>
       </c>
       <c r="L37">
-        <v>0.4048780487804878</v>
+        <v>0.4388489208633093</v>
       </c>
       <c r="M37">
-        <v>0.7414634146341463</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="1">
-        <v>2003</v>
-      </c>
+        <v>0.324468085106383</v>
+      </c>
+      <c r="N37">
+        <v>0.4148936170212766</v>
+      </c>
+      <c r="O37">
+        <v>0.4574468085106383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1"/>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>8943.160194174758</v>
+        <v>8582.948186528498</v>
       </c>
       <c r="D38">
-        <v>0.06886494154223492</v>
+        <v>0.0386651281962307</v>
       </c>
       <c r="E38">
-        <v>0.112885549791983</v>
+        <v>0.2443158536118417</v>
       </c>
       <c r="F38">
-        <v>0.14053566652354</v>
+        <v>1.464829925027377</v>
       </c>
       <c r="G38">
-        <v>0.7621037153372017</v>
+        <v>0.7490695566496012</v>
       </c>
       <c r="H38">
-        <v>3.70887069579288</v>
+        <v>3.979549797063903</v>
       </c>
       <c r="I38">
-        <v>0.0370887069579288</v>
+        <v>0.03979549797063903</v>
       </c>
       <c r="J38">
-        <v>0.08281492987816091</v>
+        <v>0.08473967136961512</v>
       </c>
       <c r="K38">
-        <v>0.1133113031367628</v>
+        <v>0.1158968199036221</v>
       </c>
       <c r="L38">
-        <v>0.3932038834951456</v>
+        <v>0.4344827586206896</v>
       </c>
       <c r="M38">
-        <v>0.2766990291262136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.3264248704663212</v>
+      </c>
+      <c r="N38">
+        <v>0.4248704663212435</v>
+      </c>
+      <c r="O38">
+        <v>0.5336787564766839</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>10136.27135678392</v>
+        <v>8562.385786802031</v>
       </c>
       <c r="D39">
-        <v>0.06299657345240861</v>
+        <v>0.4470937488264111</v>
       </c>
       <c r="E39">
-        <v>0.1709287668767269</v>
+        <v>0.3079073926669693</v>
       </c>
       <c r="F39">
-        <v>0.184157083583964</v>
+        <v>1.42948617268268</v>
       </c>
       <c r="G39">
-        <v>0.760152689800619</v>
+        <v>0.7700450228554744</v>
       </c>
       <c r="H39">
-        <v>4.078414269681742</v>
+        <v>3.851450272419628</v>
       </c>
       <c r="I39">
-        <v>0.04078414269681743</v>
+        <v>0.03851450272419628</v>
       </c>
       <c r="J39">
-        <v>0.08639330408485456</v>
+        <v>0.08471720409552473</v>
       </c>
       <c r="K39">
-        <v>0.1119990895196841</v>
+        <v>0.115292006243573</v>
       </c>
       <c r="L39">
-        <v>0.4321608040201005</v>
+        <v>0.4539473684210527</v>
       </c>
       <c r="M39">
-        <v>0.507537688442211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1"/>
+        <v>0.350253807106599</v>
+      </c>
+      <c r="N39">
+        <v>0.4213197969543147</v>
+      </c>
+      <c r="O39">
+        <v>0.5126903553299492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>2003</v>
+      </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>10466</v>
+        <v>8561.444444444445</v>
       </c>
       <c r="D40">
-        <v>0.2306396531132549</v>
+        <v>0.1580517100081672</v>
       </c>
       <c r="E40">
-        <v>0.1794548088192669</v>
+        <v>0.3081038011371244</v>
       </c>
       <c r="F40">
-        <v>0.1914555090956669</v>
+        <v>1.396778804854051</v>
       </c>
       <c r="G40">
-        <v>0.7378862644881418</v>
+        <v>0.7741899075886136</v>
       </c>
       <c r="H40">
-        <v>4.152809993527508</v>
+        <v>3.708149323232323</v>
       </c>
       <c r="I40">
-        <v>0.04152809993527508</v>
+        <v>0.03708149323232324</v>
       </c>
       <c r="J40">
-        <v>0.08580127580456358</v>
+        <v>0.08353288768764004</v>
       </c>
       <c r="K40">
-        <v>0.1106552840713606</v>
+        <v>0.1136615478837476</v>
       </c>
       <c r="L40">
-        <v>0.441747572815534</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="M40">
-        <v>0.6601941747572816</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N40">
+        <v>0.4393939393939394</v>
+      </c>
+      <c r="O40">
+        <v>0.3484848484848485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>10531.26341463415</v>
+        <v>9439.471204188481</v>
       </c>
       <c r="D41">
-        <v>0.4741063717742801</v>
+        <v>0.007130733649980021</v>
       </c>
       <c r="E41">
-        <v>0.1909012332043997</v>
+        <v>0.2584266547976688</v>
       </c>
       <c r="F41">
-        <v>0.1967463352771332</v>
+        <v>1.368819365127486</v>
       </c>
       <c r="G41">
-        <v>0.7252421458852637</v>
+        <v>0.7740803278956652</v>
       </c>
       <c r="H41">
-        <v>4.126453595121951</v>
+        <v>4.075964485165795</v>
       </c>
       <c r="I41">
-        <v>0.04126453595121951</v>
+        <v>0.04075964485165794</v>
       </c>
       <c r="J41">
-        <v>0.08477906470433533</v>
+        <v>0.08720446452539785</v>
       </c>
       <c r="K41">
-        <v>0.109097283756027</v>
+        <v>0.1124110083334789</v>
       </c>
       <c r="L41">
-        <v>0.4536585365853659</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="M41">
-        <v>0.775609756097561</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1">
-        <v>2004</v>
-      </c>
+        <v>0.3298429319371728</v>
+      </c>
+      <c r="N41">
+        <v>0.4397905759162304</v>
+      </c>
+      <c r="O41">
+        <v>0.4554973821989529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1"/>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>10751.91379310345</v>
+        <v>9816.443877551021</v>
       </c>
       <c r="D42">
-        <v>-0.05427571514453577</v>
+        <v>0.3147978369992106</v>
       </c>
       <c r="E42">
-        <v>0.1987169377882614</v>
+        <v>0.2759167927382247</v>
       </c>
       <c r="F42">
-        <v>0.2025070078281429</v>
+        <v>1.334353044085923</v>
       </c>
       <c r="G42">
-        <v>0.6960252103176918</v>
+        <v>0.7529309117990737</v>
       </c>
       <c r="H42">
-        <v>4.172322471264368</v>
+        <v>4.150982023809523</v>
       </c>
       <c r="I42">
-        <v>0.04172322471264368</v>
+        <v>0.04150982023809523</v>
       </c>
       <c r="J42">
-        <v>0.08348473733170518</v>
+        <v>0.08668567494603967</v>
       </c>
       <c r="K42">
-        <v>0.1067982092814007</v>
+        <v>0.1108695438667456</v>
       </c>
       <c r="L42">
-        <v>0.4008620689655172</v>
+        <v>0.44</v>
       </c>
       <c r="M42">
-        <v>0.3146551724137931</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.336734693877551</v>
+      </c>
+      <c r="N42">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="O42">
+        <v>0.5153061224489796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>13331.96536796537</v>
+        <v>9856.229591836734</v>
       </c>
       <c r="D43">
-        <v>0.1336171430372219</v>
+        <v>0.3311015397697827</v>
       </c>
       <c r="E43">
-        <v>0.1935971239341549</v>
+        <v>0.1870842704222503</v>
       </c>
       <c r="F43">
-        <v>0.1854045597876383</v>
+        <v>1.253290466625281</v>
       </c>
       <c r="G43">
-        <v>0.6849872738451862</v>
+        <v>0.7402413144796303</v>
       </c>
       <c r="H43">
-        <v>4.358436922077922</v>
+        <v>4.126561852040816</v>
       </c>
       <c r="I43">
-        <v>0.04358436922077922</v>
+        <v>0.04126561852040816</v>
       </c>
       <c r="J43">
-        <v>0.0846836056514904</v>
+        <v>0.08568009738918599</v>
       </c>
       <c r="K43">
-        <v>0.1067940914687441</v>
+        <v>0.1095610270607428</v>
       </c>
       <c r="L43">
-        <v>0.3982683982683983</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="M43">
-        <v>0.5887445887445888</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1"/>
+        <v>0.3622448979591837</v>
+      </c>
+      <c r="N43">
+        <v>0.3979591836734694</v>
+      </c>
+      <c r="O43">
+        <v>0.5204081632653061</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>2004</v>
+      </c>
       <c r="B44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>12996.36595744681</v>
+        <v>10200.77948717949</v>
       </c>
       <c r="D44">
-        <v>0.2648849657471277</v>
+        <v>-0.02630400110439323</v>
       </c>
       <c r="E44">
-        <v>0.1877749555423505</v>
+        <v>0.1422427107734774</v>
       </c>
       <c r="F44">
-        <v>0.1828333904028229</v>
+        <v>1.212779091947526</v>
       </c>
       <c r="G44">
-        <v>0.6829459198293136</v>
+        <v>0.7485257760899219</v>
       </c>
       <c r="H44">
-        <v>4.188275361702128</v>
+        <v>4.172380622222223</v>
       </c>
       <c r="I44">
-        <v>0.04188275361702128</v>
+        <v>0.04172380622222223</v>
       </c>
       <c r="J44">
-        <v>0.0828595088067801</v>
+        <v>0.08663535278761754</v>
       </c>
       <c r="K44">
-        <v>0.1059334081832678</v>
+        <v>0.1081773913033907</v>
       </c>
       <c r="L44">
-        <v>0.4085106382978723</v>
+        <v>0.4625850340136055</v>
       </c>
       <c r="M44">
-        <v>0.6978723404255319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.3487179487179487</v>
+      </c>
+      <c r="N44">
+        <v>0.4051282051282051</v>
+      </c>
+      <c r="O44">
+        <v>0.3948717948717949</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>14796.42194092827</v>
+        <v>12805.41919191919</v>
       </c>
       <c r="D45">
-        <v>0.3896361650536021</v>
+        <v>0.1272333596372735</v>
       </c>
       <c r="E45">
-        <v>0.1871624785155349</v>
+        <v>0.1411543433816835</v>
       </c>
       <c r="F45">
-        <v>0.1828837673694651</v>
+        <v>1.20364627081043</v>
       </c>
       <c r="G45">
-        <v>0.6962154991280617</v>
+        <v>0.7229549264553019</v>
       </c>
       <c r="H45">
-        <v>4.242117385372715</v>
+        <v>4.35385815993266</v>
       </c>
       <c r="I45">
-        <v>0.04242117385372714</v>
+        <v>0.0435385815993266</v>
       </c>
       <c r="J45">
-        <v>0.08419410380141085</v>
+        <v>0.0869158771866447</v>
       </c>
       <c r="K45">
-        <v>0.1049143621946982</v>
+        <v>0.1075483848621838</v>
       </c>
       <c r="L45">
-        <v>0.4219409282700422</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="M45">
-        <v>0.7763713080168776</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1">
-        <v>2005</v>
-      </c>
+        <v>0.3484848484848485</v>
+      </c>
+      <c r="N45">
+        <v>0.404040404040404</v>
+      </c>
+      <c r="O45">
+        <v>0.4848484848484849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1"/>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>16293.04098360656</v>
+        <v>13236.42574257426</v>
       </c>
       <c r="D46">
-        <v>0.03905156478795833</v>
+        <v>-0.1737178075095374</v>
       </c>
       <c r="E46">
-        <v>0.1941334635481062</v>
+        <v>0.0811373513118883</v>
       </c>
       <c r="F46">
-        <v>0.1699667142909208</v>
+        <v>1.115799426892262</v>
       </c>
       <c r="G46">
-        <v>0.6942854865640989</v>
+        <v>0.7222753691252949</v>
       </c>
       <c r="H46">
-        <v>4.21619331489071</v>
+        <v>4.190797249174917</v>
       </c>
       <c r="I46">
-        <v>0.04216193314890711</v>
+        <v>0.04190797249174918</v>
       </c>
       <c r="J46">
-        <v>0.08381906234275303</v>
+        <v>0.08524449463926687</v>
       </c>
       <c r="K46">
-        <v>0.104087256880058</v>
+        <v>0.1066923150659719</v>
       </c>
       <c r="L46">
-        <v>0.4262295081967213</v>
+        <v>0.461038961038961</v>
       </c>
       <c r="M46">
-        <v>0.3278688524590164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.3514851485148515</v>
+      </c>
+      <c r="N46">
+        <v>0.4108910891089109</v>
+      </c>
+      <c r="O46">
+        <v>0.5445544554455446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>15156.7387755102</v>
+        <v>15325.3137254902</v>
       </c>
       <c r="D47">
-        <v>0.05637321158172474</v>
+        <v>-0.02205255458120851</v>
       </c>
       <c r="E47">
-        <v>0.1631654080082851</v>
+        <v>0.06280389799991676</v>
       </c>
       <c r="F47">
-        <v>0.1426405854712152</v>
+        <v>1.097522591104834</v>
       </c>
       <c r="G47">
-        <v>0.736685312240931</v>
+        <v>0.737788432370427</v>
       </c>
       <c r="H47">
-        <v>4.097283708503402</v>
+        <v>4.242371130718954</v>
       </c>
       <c r="I47">
-        <v>0.04097283708503402</v>
+        <v>0.04242371130718954</v>
       </c>
       <c r="J47">
-        <v>0.08517395581948987</v>
+        <v>0.08669101724941516</v>
       </c>
       <c r="K47">
-        <v>0.1038721602531136</v>
+        <v>0.105704265473305</v>
       </c>
       <c r="L47">
-        <v>0.4</v>
+        <v>0.4551282051282051</v>
       </c>
       <c r="M47">
-        <v>0.5428571428571428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1"/>
+        <v>0.3480392156862745</v>
+      </c>
+      <c r="N47">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="O47">
+        <v>0.5441176470588235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>2005</v>
+      </c>
       <c r="B48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>15377.06639004149</v>
+        <v>17038.45497630332</v>
       </c>
       <c r="D48">
-        <v>0.4409927412997783</v>
+        <v>0.1714694876066034</v>
       </c>
       <c r="E48">
-        <v>0.1445384349682829</v>
+        <v>0.05735220868479424</v>
       </c>
       <c r="F48">
-        <v>0.1313507526766379</v>
+        <v>1.053517567850564</v>
       </c>
       <c r="G48">
-        <v>0.7601934908734734</v>
+        <v>0.7359437453161862</v>
       </c>
       <c r="H48">
-        <v>4.406167153526971</v>
+        <v>4.215186812796208</v>
       </c>
       <c r="I48">
-        <v>0.04406167153526971</v>
+        <v>0.04215186812796208</v>
       </c>
       <c r="J48">
-        <v>0.08967328098767811</v>
+        <v>0.08630849284693326</v>
       </c>
       <c r="K48">
-        <v>0.1024166705093185</v>
+        <v>0.1048975633240795</v>
       </c>
       <c r="L48">
-        <v>0.3983402489626556</v>
+        <v>0.46875</v>
       </c>
       <c r="M48">
-        <v>0.6970954356846473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.3554502369668247</v>
+      </c>
+      <c r="N48">
+        <v>0.4028436018957346</v>
+      </c>
+      <c r="O48">
+        <v>0.3507109004739337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>16184.9279661017</v>
+        <v>15045.92957746479</v>
       </c>
       <c r="D49">
-        <v>0.1768700209720497</v>
+        <v>-0.2950064483767475</v>
       </c>
       <c r="E49">
-        <v>0.1464985012041413</v>
+        <v>0.01619092657928907</v>
       </c>
       <c r="F49">
-        <v>0.1423938337112021</v>
+        <v>0.09514975553167362</v>
       </c>
       <c r="G49">
-        <v>0.8212563110687253</v>
+        <v>0.7808005482904677</v>
       </c>
       <c r="H49">
-        <v>4.524353635240113</v>
+        <v>4.100380451095462</v>
       </c>
       <c r="I49">
-        <v>0.04524353635240113</v>
+        <v>0.04100380451095462</v>
       </c>
       <c r="J49">
-        <v>0.09451891501652465</v>
+        <v>0.08785183740838269</v>
       </c>
       <c r="K49">
-        <v>0.1016562959746099</v>
+        <v>0.1045335570406312</v>
       </c>
       <c r="L49">
-        <v>0.3940677966101695</v>
+        <v>0.4382716049382716</v>
       </c>
       <c r="M49">
-        <v>0.7627118644067796</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1">
-        <v>2006</v>
-      </c>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N49">
+        <v>0.4272300469483568</v>
+      </c>
+      <c r="O49">
+        <v>0.4413145539906103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1"/>
       <c r="B50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>16501.00420168067</v>
+        <v>15238.02857142857</v>
       </c>
       <c r="D50">
-        <v>-0.188706945522591</v>
+        <v>0.3953494946858476</v>
       </c>
       <c r="E50">
-        <v>0.1405540988995007</v>
+        <v>0.03601036383499682</v>
       </c>
       <c r="F50">
-        <v>0.138265159612532</v>
+        <v>0.1161875272127909</v>
       </c>
       <c r="G50">
-        <v>0.8797697934483315</v>
+        <v>0.8057073909710842</v>
       </c>
       <c r="H50">
-        <v>4.954826723039216</v>
+        <v>4.402945506349206</v>
       </c>
       <c r="I50">
-        <v>0.04954826723039216</v>
+        <v>0.04402945506349206</v>
       </c>
       <c r="J50">
-        <v>0.102334454837292</v>
+        <v>0.0923718985217571</v>
       </c>
       <c r="K50">
-        <v>0.1012215938390236</v>
+        <v>0.103281959276022</v>
       </c>
       <c r="L50">
-        <v>0.3991596638655462</v>
+        <v>0.4654088050314465</v>
       </c>
       <c r="M50">
-        <v>0.2689075630252101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.3523809523809524</v>
+      </c>
+      <c r="N50">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="O50">
+        <v>0.5190476190476191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>16343.97033898305</v>
+        <v>16094.2077294686</v>
       </c>
       <c r="D51">
-        <v>-0.001493551497505672</v>
+        <v>0.7663263876092479</v>
       </c>
       <c r="E51">
-        <v>0.1288526912917925</v>
+        <v>0.0102461560746164</v>
       </c>
       <c r="F51">
-        <v>0.1420963892645424</v>
+        <v>0.1090741799905699</v>
       </c>
       <c r="G51">
-        <v>0.9366479157914458</v>
+        <v>0.8714876837751258</v>
       </c>
       <c r="H51">
-        <v>4.862558153248588</v>
+        <v>4.523318329307568</v>
       </c>
       <c r="I51">
-        <v>0.04862558153248588</v>
+        <v>0.04523318329307568</v>
       </c>
       <c r="J51">
-        <v>0.1048244564799726</v>
+        <v>0.09752244431958323</v>
       </c>
       <c r="K51">
-        <v>0.1008191791108005</v>
+        <v>0.1026828306621452</v>
       </c>
       <c r="L51">
-        <v>0.3940677966101695</v>
+        <v>0.4777070063694268</v>
       </c>
       <c r="M51">
-        <v>0.4872881355932203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1"/>
+        <v>0.3623188405797101</v>
+      </c>
+      <c r="N51">
+        <v>0.3961352657004831</v>
+      </c>
+      <c r="O51">
+        <v>0.4830917874396135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>2006</v>
+      </c>
       <c r="B52" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>16403.4388185654</v>
+        <v>16455.00956937799</v>
       </c>
       <c r="D52">
-        <v>0.1913045451597791</v>
+        <v>0.1927524226748299</v>
       </c>
       <c r="E52">
-        <v>0.1789023958944627</v>
+        <v>0.01100620397368761</v>
       </c>
       <c r="F52">
-        <v>0.1571293420138474</v>
+        <v>0.112552165079379</v>
       </c>
       <c r="G52">
-        <v>0.97468457328338</v>
+        <v>0.9324227945563479</v>
       </c>
       <c r="H52">
-        <v>4.623101068917018</v>
+        <v>4.949782760366826</v>
       </c>
       <c r="I52">
-        <v>0.04623101068917018</v>
+        <v>0.04949782760366826</v>
       </c>
       <c r="J52">
-        <v>0.104712085086173</v>
+        <v>0.1054431952770491</v>
       </c>
       <c r="K52">
-        <v>0.0998974872991461</v>
+        <v>0.1023234758674414</v>
       </c>
       <c r="L52">
-        <v>0.3755274261603376</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="M52">
-        <v>0.6413502109704642</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="N52">
+        <v>0.3923444976076555</v>
+      </c>
+      <c r="O52">
+        <v>0.3062200956937799</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>17425.6049382716</v>
+        <v>16275.53140096618</v>
       </c>
       <c r="D53">
-        <v>0.3425055058164996</v>
+        <v>0.0464477786000228</v>
       </c>
       <c r="E53">
-        <v>0.2184546773175524</v>
+        <v>0.05339910208058764</v>
       </c>
       <c r="F53">
-        <v>2.216401152716031</v>
+        <v>0.1237932323968534</v>
       </c>
       <c r="G53">
-        <v>1.000298418615442</v>
+        <v>0.9912618979140194</v>
       </c>
       <c r="H53">
-        <v>4.679599523319616</v>
+        <v>4.860948461352657</v>
       </c>
       <c r="I53">
-        <v>0.04679599523319616</v>
+        <v>0.04860948461352656</v>
       </c>
       <c r="J53">
-        <v>0.1068139003501227</v>
+        <v>0.1080851984883677</v>
       </c>
       <c r="K53">
-        <v>0.09947786740604846</v>
+        <v>0.1020663603726495</v>
       </c>
       <c r="L53">
-        <v>0.3868312757201646</v>
+        <v>0.5095541401273885</v>
       </c>
       <c r="M53">
-        <v>0.7160493827160493</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1">
-        <v>2007</v>
-      </c>
+        <v>0.3864734299516908</v>
+      </c>
+      <c r="N53">
+        <v>0.3719806763285024</v>
+      </c>
+      <c r="O53">
+        <v>0.3864734299516908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1"/>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>18087.256</v>
+        <v>16235.99043062201</v>
       </c>
       <c r="D54">
-        <v>0.1595532311798483</v>
+        <v>-0.04452820139350615</v>
       </c>
       <c r="E54">
-        <v>0.2270436217450385</v>
+        <v>0.1641761235172014</v>
       </c>
       <c r="F54">
-        <v>2.160639003803982</v>
+        <v>0.9687521945023462</v>
       </c>
       <c r="G54">
-        <v>1.044475916755066</v>
+        <v>1.028600477465637</v>
       </c>
       <c r="H54">
-        <v>4.826801410666667</v>
+        <v>4.626721272727273</v>
       </c>
       <c r="I54">
-        <v>0.04826801410666667</v>
+        <v>0.04626721272727274</v>
       </c>
       <c r="J54">
-        <v>0.1109365691119706</v>
+        <v>0.107983241375211</v>
       </c>
       <c r="K54">
-        <v>0.09920563285221148</v>
+        <v>0.1011742219418267</v>
       </c>
       <c r="L54">
-        <v>0.388</v>
+        <v>0.4876543209876543</v>
       </c>
       <c r="M54">
-        <v>0.324</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.3779904306220095</v>
+      </c>
+      <c r="N54">
+        <v>0.3971291866028708</v>
+      </c>
+      <c r="O54">
+        <v>0.4354066985645933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>18083.19758064516</v>
+        <v>17282.21596244131</v>
       </c>
       <c r="D55">
-        <v>0.1056623625817207</v>
+        <v>-0.1107046510910165</v>
       </c>
       <c r="E55">
-        <v>0.1878770403591925</v>
+        <v>0.1817483762477959</v>
       </c>
       <c r="F55">
-        <v>0.1668280918995012</v>
+        <v>0.9338825314446486</v>
       </c>
       <c r="G55">
-        <v>1.043270979243252</v>
+        <v>1.052190707325044</v>
       </c>
       <c r="H55">
-        <v>4.624018085349462</v>
+        <v>4.681020984350548</v>
       </c>
       <c r="I55">
-        <v>0.04624018085349463</v>
+        <v>0.04681020984350548</v>
       </c>
       <c r="J55">
-        <v>0.1088364396080898</v>
+        <v>0.1099416522830081</v>
       </c>
       <c r="K55">
-        <v>0.09857943203941447</v>
+        <v>0.1009046270974542</v>
       </c>
       <c r="L55">
-        <v>0.4072580645161291</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="M55">
-        <v>0.5201612903225806</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1"/>
+        <v>0.3661971830985916</v>
+      </c>
+      <c r="N55">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="O55">
+        <v>0.4929577464788732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>2007</v>
+      </c>
       <c r="B56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>18720.47389558233</v>
+        <v>17920.42857142857</v>
       </c>
       <c r="D56">
-        <v>0.1958608208293986</v>
+        <v>-0.2030806562703758</v>
       </c>
       <c r="E56">
-        <v>0.1892041330247724</v>
+        <v>0.187043222256093</v>
       </c>
       <c r="F56">
-        <v>0.1668094874599749</v>
+        <v>0.9192596780636941</v>
       </c>
       <c r="G56">
-        <v>1.078121747169291</v>
+        <v>1.097142940466574</v>
       </c>
       <c r="H56">
-        <v>4.23818547991968</v>
+        <v>4.822373365591398</v>
       </c>
       <c r="I56">
-        <v>0.04238185479919679</v>
+        <v>0.04822373365591399</v>
       </c>
       <c r="J56">
-        <v>0.1070691596293542</v>
+        <v>0.1140523100839084</v>
       </c>
       <c r="K56">
-        <v>0.09844682597596499</v>
+        <v>0.1006474311908497</v>
       </c>
       <c r="L56">
-        <v>0.4136546184738956</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="M56">
-        <v>0.6345381526104418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.3778801843317972</v>
+      </c>
+      <c r="N56">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="O56">
+        <v>0.3410138248847926</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>19286.21031746032</v>
+        <v>17334.72300469484</v>
       </c>
       <c r="D57">
-        <v>0.3345837161885181</v>
+        <v>0.8557930600322733</v>
       </c>
       <c r="E57">
-        <v>0.1831735182053151</v>
+        <v>0.1687597537260881</v>
       </c>
       <c r="F57">
-        <v>0.1635832462871918</v>
+        <v>0.1283344751005201</v>
       </c>
       <c r="G57">
-        <v>1.088196818861046</v>
+        <v>1.086310209530849</v>
       </c>
       <c r="H57">
-        <v>3.774597742063492</v>
+        <v>4.623873477308294</v>
       </c>
       <c r="I57">
-        <v>0.03774597742063492</v>
+        <v>0.04623873477308294</v>
       </c>
       <c r="J57">
-        <v>0.1030377865522977</v>
+        <v>0.1114173473449338</v>
       </c>
       <c r="K57">
-        <v>0.09809083987242234</v>
+        <v>0.1001527512452341</v>
       </c>
       <c r="L57">
-        <v>0.4126984126984127</v>
+        <v>0.5182926829268293</v>
       </c>
       <c r="M57">
-        <v>0.7261904761904762</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1">
-        <v>2008</v>
-      </c>
+        <v>0.3990610328638498</v>
+      </c>
+      <c r="N57">
+        <v>0.3708920187793427</v>
+      </c>
+      <c r="O57">
+        <v>0.4413145539906103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1"/>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>19377.65612648221</v>
+        <v>18079.72429906542</v>
       </c>
       <c r="D58">
-        <v>0.01680746693720425</v>
+        <v>0.3623582707976291</v>
       </c>
       <c r="E58">
-        <v>0.1847452087566413</v>
+        <v>0.1712348670354353</v>
       </c>
       <c r="F58">
-        <v>0.1607515209128592</v>
+        <v>0.1362947318441744</v>
       </c>
       <c r="G58">
-        <v>1.093557215218269</v>
+        <v>1.121114856717378</v>
       </c>
       <c r="H58">
-        <v>3.754894731225296</v>
+        <v>4.241469007009346</v>
       </c>
       <c r="I58">
-        <v>0.03754894731225296</v>
+        <v>0.04241469007009346</v>
       </c>
       <c r="J58">
-        <v>0.1031623802253491</v>
+        <v>0.1096815814731361</v>
       </c>
       <c r="K58">
-        <v>0.09770649464291555</v>
+        <v>0.1000684981630284</v>
       </c>
       <c r="L58">
-        <v>0.4150197628458498</v>
+        <v>0.496969696969697</v>
       </c>
       <c r="M58">
-        <v>0.2964426877470356</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.3831775700934579</v>
+      </c>
+      <c r="N58">
+        <v>0.3878504672897196</v>
+      </c>
+      <c r="O58">
+        <v>0.4439252336448598</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>22320.85964912281</v>
+        <v>18745.5668202765</v>
       </c>
       <c r="D59">
-        <v>0.7185362918721065</v>
+        <v>0.2797651275246352</v>
       </c>
       <c r="E59">
-        <v>0.225106686639596</v>
+        <v>0.1885730057283945</v>
       </c>
       <c r="F59">
-        <v>1.715226430590629</v>
+        <v>0.1422568037554292</v>
       </c>
       <c r="G59">
-        <v>1.110559613566352</v>
+        <v>1.124066031918301</v>
       </c>
       <c r="H59">
-        <v>3.886610529824562</v>
+        <v>3.782670638248848</v>
       </c>
       <c r="I59">
-        <v>0.03886610529824562</v>
+        <v>0.03782670638248848</v>
       </c>
       <c r="J59">
-        <v>0.1054996821122267</v>
+        <v>0.1052706682975865</v>
       </c>
       <c r="K59">
-        <v>0.09754403477762616</v>
+        <v>0.09973209726549513</v>
       </c>
       <c r="L59">
-        <v>0.4140350877192983</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="M59">
-        <v>0.4736842105263158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1"/>
+        <v>0.4009216589861751</v>
+      </c>
+      <c r="N59">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="O59">
+        <v>0.4700460829493088</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>2008</v>
+      </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>23582.39930555555</v>
+        <v>19035.61363636364</v>
       </c>
       <c r="D60">
-        <v>0.2212104025403215</v>
+        <v>-0.02518224537957262</v>
       </c>
       <c r="E60">
-        <v>0.2293465813972589</v>
+        <v>0.2096758495547392</v>
       </c>
       <c r="F60">
-        <v>1.671092335032005</v>
+        <v>0.1372135517889574</v>
       </c>
       <c r="G60">
-        <v>1.121221267331109</v>
+        <v>1.126759934628482</v>
       </c>
       <c r="H60">
-        <v>3.573463163773148</v>
+        <v>3.758099615151515</v>
       </c>
       <c r="I60">
-        <v>0.03573463163773148</v>
+        <v>0.03758099615151515</v>
       </c>
       <c r="J60">
-        <v>0.103007907677598</v>
+        <v>0.1051865922292241</v>
       </c>
       <c r="K60">
-        <v>0.09751760457572661</v>
+        <v>0.09923906469467311</v>
       </c>
       <c r="L60">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="M60">
-        <v>0.6076388888888888</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.3909090909090909</v>
+      </c>
+      <c r="N60">
+        <v>0.3909090909090909</v>
+      </c>
+      <c r="O60">
+        <v>0.3090909090909091</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>23481.45172413793</v>
+        <v>22650.8</v>
       </c>
       <c r="D61">
-        <v>0.7950625540246491</v>
+        <v>-0.5372063576810702</v>
       </c>
       <c r="E61">
-        <v>0.2468241934095516</v>
+        <v>0.1333612658934432</v>
       </c>
       <c r="F61">
-        <v>1.63316673150673</v>
+        <v>0.04061219457874973</v>
       </c>
       <c r="G61">
-        <v>1.184834193571236</v>
+        <v>1.130689303406404</v>
       </c>
       <c r="H61">
-        <v>2.798131508620689</v>
+        <v>3.883372863945578</v>
       </c>
       <c r="I61">
-        <v>0.0279813150862069</v>
+        <v>0.03883372863945579</v>
       </c>
       <c r="J61">
-        <v>0.09907136670048103</v>
+        <v>0.10667508684384</v>
       </c>
       <c r="K61">
-        <v>0.09757566846965002</v>
+        <v>0.09900233275615447</v>
       </c>
       <c r="L61">
-        <v>0.4275862068965517</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="M61">
-        <v>0.696551724137931</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1">
-        <v>2009</v>
-      </c>
+        <v>0.4163265306122449</v>
+      </c>
+      <c r="N61">
+        <v>0.3755102040816327</v>
+      </c>
+      <c r="O61">
+        <v>0.4244897959183673</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1"/>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>23576.34693877551</v>
+        <v>23947.81781376518</v>
       </c>
       <c r="D62">
-        <v>0.07597509124669526</v>
+        <v>0.05726609635660773</v>
       </c>
       <c r="E62">
-        <v>0.2464498880489199</v>
+        <v>0.1426063956521012</v>
       </c>
       <c r="F62">
-        <v>1.580023262741816</v>
+        <v>0.03767734970395428</v>
       </c>
       <c r="G62">
-        <v>1.273803152761909</v>
+        <v>1.170887098517154</v>
       </c>
       <c r="H62">
-        <v>3.092437618480726</v>
+        <v>3.573095606612685</v>
       </c>
       <c r="I62">
-        <v>0.03092437618480726</v>
+        <v>0.03573095606612686</v>
       </c>
       <c r="J62">
-        <v>0.1073525653505218</v>
+        <v>0.1059841819771561</v>
       </c>
       <c r="K62">
-        <v>0.09791604741189017</v>
+        <v>0.09899837287738099</v>
       </c>
       <c r="L62">
-        <v>0.4387755102040816</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="M62">
-        <v>0.3129251700680272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.4129554655870445</v>
+      </c>
+      <c r="N62">
+        <v>0.3765182186234818</v>
+      </c>
+      <c r="O62">
+        <v>0.4251012145748988</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>24204.68646864687</v>
+        <v>23925.62948207171</v>
       </c>
       <c r="D63">
-        <v>0.1623257062756467</v>
+        <v>0.2709199233325437</v>
       </c>
       <c r="E63">
-        <v>0.1395763708058714</v>
+        <v>0.1558004780635091</v>
       </c>
       <c r="F63">
-        <v>1.458808143000676</v>
+        <v>0.04866824141424895</v>
       </c>
       <c r="G63">
-        <v>1.282402208605957</v>
+        <v>1.223117068660528</v>
       </c>
       <c r="H63">
-        <v>3.413997409240924</v>
+        <v>2.81139057436919</v>
       </c>
       <c r="I63">
-        <v>0.03413997409240924</v>
+        <v>0.0281139057436919</v>
       </c>
       <c r="J63">
-        <v>0.1110841066087667</v>
+        <v>0.1015009298633236</v>
       </c>
       <c r="K63">
-        <v>0.0981195137545956</v>
+        <v>0.09916357193420069</v>
       </c>
       <c r="L63">
-        <v>0.4323432343234324</v>
+        <v>0.527363184079602</v>
       </c>
       <c r="M63">
-        <v>0.5676567656765676</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1"/>
+        <v>0.4223107569721116</v>
+      </c>
+      <c r="N63">
+        <v>0.3784860557768924</v>
+      </c>
+      <c r="O63">
+        <v>0.4780876494023905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>2009</v>
+      </c>
       <c r="B64" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>24359.97411003236</v>
+        <v>23634.00682593857</v>
       </c>
       <c r="D64">
-        <v>9.698218602304438</v>
+        <v>0.06826582159343132</v>
       </c>
       <c r="E64">
-        <v>0.4589353773248628</v>
+        <v>0.1605095185815737</v>
       </c>
       <c r="F64">
-        <v>1.591223322000649</v>
+        <v>0.0454824844904281</v>
       </c>
       <c r="G64">
-        <v>1.305245391923731</v>
+        <v>1.272343015723973</v>
       </c>
       <c r="H64">
-        <v>3.306185204422869</v>
+        <v>3.092472465870307</v>
       </c>
       <c r="I64">
-        <v>0.0330618520442287</v>
+        <v>0.03092472465870307</v>
       </c>
       <c r="J64">
-        <v>0.1113765755596526</v>
+        <v>0.1072653056021414</v>
       </c>
       <c r="K64">
-        <v>0.09869771421684148</v>
+        <v>0.0979509255510882</v>
       </c>
       <c r="L64">
-        <v>0.4401294498381877</v>
+        <v>0.5317073170731708</v>
       </c>
       <c r="M64">
-        <v>0.7508090614886731</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.3720136518771331</v>
+      </c>
+      <c r="N64">
+        <v>0.3276450511945392</v>
+      </c>
+      <c r="O64">
+        <v>0.2798634812286689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>25733.4520123839</v>
+        <v>24204.68646864687</v>
       </c>
       <c r="D65">
-        <v>0.4062634450339427</v>
+        <v>0.07785804330247768</v>
       </c>
       <c r="E65">
-        <v>0.4412607835153856</v>
+        <v>-0.05153296543454518</v>
       </c>
       <c r="F65">
-        <v>1.498256902320698</v>
+        <v>0.4850836802365288</v>
       </c>
       <c r="G65">
-        <v>1.302596633872447</v>
+        <v>1.282402208605957</v>
       </c>
       <c r="H65">
-        <v>3.646174970588235</v>
+        <v>3.413997409240924</v>
       </c>
       <c r="I65">
-        <v>0.03646174970588235</v>
+        <v>0.03413997409240924</v>
       </c>
       <c r="J65">
-        <v>0.1146175477382291</v>
+        <v>0.1110841066087667</v>
       </c>
       <c r="K65">
-        <v>0.09872914370253305</v>
+        <v>0.0981195137545956</v>
       </c>
       <c r="L65">
-        <v>0.4489164086687307</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="M65">
-        <v>0.7987616099071208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1">
-        <v>2010</v>
-      </c>
+        <v>0.3564356435643564</v>
+      </c>
+      <c r="N65">
+        <v>0.3465346534653465</v>
+      </c>
+      <c r="O65">
+        <v>0.3498349834983498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1"/>
       <c r="B66" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>26393.00934579439</v>
+        <v>24359.97411003236</v>
       </c>
       <c r="D66">
-        <v>0.05121581113312244</v>
+        <v>0.1053900638110994</v>
       </c>
       <c r="E66">
-        <v>0.4406225772102416</v>
+        <v>-0.04842844349800608</v>
       </c>
       <c r="F66">
-        <v>1.490208446848144</v>
+        <v>0.4594918911588221</v>
       </c>
       <c r="G66">
-        <v>1.304938654903903</v>
+        <v>1.305245391923731</v>
       </c>
       <c r="H66">
-        <v>3.697922734164071</v>
+        <v>3.306185204422869</v>
       </c>
       <c r="I66">
-        <v>0.03697922734164071</v>
+        <v>0.0330618520442287</v>
       </c>
       <c r="J66">
-        <v>0.1152755466358749</v>
+        <v>0.1113765755596526</v>
       </c>
       <c r="K66">
-        <v>0.09826813724286358</v>
+        <v>0.09869771421684148</v>
       </c>
       <c r="L66">
-        <v>0.4392523364485981</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="M66">
-        <v>0.3177570093457944</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.3592233009708738</v>
+      </c>
+      <c r="N66">
+        <v>0.3495145631067961</v>
+      </c>
+      <c r="O66">
+        <v>0.4207119741100324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>26085.7210031348</v>
+        <v>25733.4520123839</v>
       </c>
       <c r="D67">
-        <v>0.1799602230072281</v>
+        <v>0.1281696047533497</v>
       </c>
       <c r="E67">
-        <v>0.431865466682613</v>
+        <v>-0.06605119098872916</v>
       </c>
       <c r="F67">
-        <v>1.456766033922943</v>
+        <v>0.4744276302343457</v>
       </c>
       <c r="G67">
-        <v>1.289411917062147</v>
+        <v>1.302596633872447</v>
       </c>
       <c r="H67">
-        <v>2.876141955590387</v>
+        <v>3.646174970588235</v>
       </c>
       <c r="I67">
-        <v>0.02876141955590386</v>
+        <v>0.03646174970588235</v>
       </c>
       <c r="J67">
-        <v>0.1061261345796327</v>
+        <v>0.1146175477382291</v>
       </c>
       <c r="K67">
-        <v>0.09695267642474165</v>
+        <v>0.09872914370253305</v>
       </c>
       <c r="L67">
-        <v>0.445141065830721</v>
+        <v>0.5021645021645021</v>
       </c>
       <c r="M67">
-        <v>0.6081504702194357</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="1"/>
+        <v>0.3591331269349845</v>
+      </c>
+      <c r="N67">
+        <v>0.3560371517027864</v>
+      </c>
+      <c r="O67">
+        <v>0.3993808049535604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1">
+        <v>2010</v>
+      </c>
       <c r="B68" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>26304.08176100629</v>
+        <v>26393.00934579439</v>
       </c>
       <c r="D68">
-        <v>0.2797606596576099</v>
+        <v>0.02798051006475503</v>
       </c>
       <c r="E68">
-        <v>0.4456147948099456</v>
+        <v>-0.0672827132243919</v>
       </c>
       <c r="F68">
-        <v>1.443779160097706</v>
+        <v>0.4754615267256908</v>
       </c>
       <c r="G68">
-        <v>1.266891223308563</v>
+        <v>1.304938654903903</v>
       </c>
       <c r="H68">
-        <v>2.718040578092243</v>
+        <v>3.697922734164071</v>
       </c>
       <c r="I68">
-        <v>0.02718040578092243</v>
+        <v>0.03697922734164071</v>
       </c>
       <c r="J68">
-        <v>0.1031938791794362</v>
+        <v>0.1152755466358749</v>
       </c>
       <c r="K68">
-        <v>0.09661969493556592</v>
+        <v>0.09826813724286358</v>
       </c>
       <c r="L68">
-        <v>0.4465408805031447</v>
+        <v>0.5043859649122807</v>
       </c>
       <c r="M68">
-        <v>0.7169811320754716</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.3582554517133956</v>
+      </c>
+      <c r="N68">
+        <v>0.35202492211838</v>
+      </c>
+      <c r="O68">
+        <v>0.205607476635514</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>26731.53459119497</v>
+        <v>26085.7210031348</v>
       </c>
       <c r="D69">
-        <v>0.438304347857875</v>
+        <v>0.08698830569138052</v>
       </c>
       <c r="E69">
-        <v>0.4075777298572599</v>
+        <v>0.08820546964170295</v>
       </c>
       <c r="F69">
-        <v>1.278751525443897</v>
+        <v>0.5446316876372926</v>
       </c>
       <c r="G69">
-        <v>1.267716092278177</v>
+        <v>1.289411917062147</v>
       </c>
       <c r="H69">
-        <v>3.301930338574423</v>
+        <v>2.876141955590387</v>
       </c>
       <c r="I69">
-        <v>0.03301930338574424</v>
+        <v>0.02876141955590386</v>
       </c>
       <c r="J69">
-        <v>0.1090822689224348</v>
+        <v>0.1061261345796327</v>
       </c>
       <c r="K69">
-        <v>0.09628664483488172</v>
+        <v>0.09695267642474165</v>
       </c>
       <c r="L69">
-        <v>0.4779874213836478</v>
+        <v>0.5110132158590308</v>
       </c>
       <c r="M69">
-        <v>0.7641509433962265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="1">
-        <v>2011</v>
-      </c>
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="N69">
+        <v>0.347962382445141</v>
+      </c>
+      <c r="O69">
+        <v>0.3134796238244514</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1"/>
       <c r="B70" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>26978.45911949686</v>
+        <v>26304.08176100629</v>
       </c>
       <c r="D70">
-        <v>-0.07188288148106846</v>
+        <v>0.08979481599779035</v>
       </c>
       <c r="E70">
-        <v>0.4147702774417301</v>
+        <v>0.08702669246493268</v>
       </c>
       <c r="F70">
-        <v>1.270266317287624</v>
+        <v>0.5450221311155568</v>
       </c>
       <c r="G70">
-        <v>1.26382154439071</v>
+        <v>1.266891223308563</v>
       </c>
       <c r="H70">
-        <v>3.239687352725367</v>
+        <v>2.718040578092243</v>
       </c>
       <c r="I70">
-        <v>0.03239687352725367</v>
+        <v>0.02718040578092243</v>
       </c>
       <c r="J70">
-        <v>0.1082261661906963</v>
+        <v>0.1031938791794362</v>
       </c>
       <c r="K70">
-        <v>0.09676622664825954</v>
+        <v>0.09661969493556592</v>
       </c>
       <c r="L70">
-        <v>0.4811320754716981</v>
+        <v>0.5044642857142857</v>
       </c>
       <c r="M70">
-        <v>0.2672955974842767</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.3553459119496855</v>
+      </c>
+      <c r="N70">
+        <v>0.3490566037735849</v>
+      </c>
+      <c r="O70">
+        <v>0.3396226415094339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>28951.19543973941</v>
+        <v>26731.53459119497</v>
       </c>
       <c r="D71">
-        <v>0.05808469223959755</v>
+        <v>0.1086568205855711</v>
       </c>
       <c r="E71">
-        <v>0.3586515990657491</v>
+        <v>0.07902585991605614</v>
       </c>
       <c r="F71">
-        <v>1.263116932423622</v>
+        <v>0.4858739450856112</v>
       </c>
       <c r="G71">
-        <v>1.25763535434637</v>
+        <v>1.267716092278177</v>
       </c>
       <c r="H71">
-        <v>2.771703951954398</v>
+        <v>3.301930338574423</v>
       </c>
       <c r="I71">
-        <v>0.02771703951954398</v>
+        <v>0.03301930338574424</v>
       </c>
       <c r="J71">
-        <v>0.1031751607803262</v>
+        <v>0.1090822689224348</v>
       </c>
       <c r="K71">
-        <v>0.09882058260708232</v>
+        <v>0.09628664483488172</v>
       </c>
       <c r="L71">
-        <v>0.4560260586319218</v>
+        <v>0.4581673306772908</v>
       </c>
       <c r="M71">
-        <v>0.5309446254071661</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1"/>
+        <v>0.3616352201257861</v>
+      </c>
+      <c r="N71">
+        <v>0.4276729559748428</v>
+      </c>
+      <c r="O71">
+        <v>0.3427672955974843</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1">
+        <v>2011</v>
+      </c>
       <c r="B72" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>29710.66666666667</v>
+        <v>26978.45911949686</v>
       </c>
       <c r="D72">
-        <v>0.1443050630596378</v>
+        <v>0.0009635597325916253</v>
       </c>
       <c r="E72">
-        <v>0.3384778827665941</v>
+        <v>0.07304630462689307</v>
       </c>
       <c r="F72">
-        <v>1.238623727992097</v>
+        <v>0.4783470197200138</v>
       </c>
       <c r="G72">
-        <v>1.280404203640005</v>
+        <v>1.26382154439071</v>
       </c>
       <c r="H72">
-        <v>2.095498345352564</v>
+        <v>3.239687352725367</v>
       </c>
       <c r="I72">
-        <v>0.02095498345352564</v>
+        <v>0.03239687352725367</v>
       </c>
       <c r="J72">
-        <v>0.09777923567192592</v>
+        <v>0.1082261661906963</v>
       </c>
       <c r="K72">
-        <v>0.09942768026629487</v>
+        <v>0.09676622664825954</v>
       </c>
       <c r="L72">
-        <v>0.4647435897435898</v>
+        <v>0.450199203187251</v>
       </c>
       <c r="M72">
-        <v>0.6378205128205128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.3553459119496855</v>
+      </c>
+      <c r="N72">
+        <v>0.4339622641509434</v>
+      </c>
+      <c r="O72">
+        <v>0.1572327044025157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>29858.56151419558</v>
+        <v>28951.19543973941</v>
       </c>
       <c r="D73">
-        <v>0.1536362750999175</v>
+        <v>0.02447666130984135</v>
       </c>
       <c r="E73">
-        <v>0.3792707097921639</v>
+        <v>0.1351611184057304</v>
       </c>
       <c r="F73">
-        <v>1.206819646946715</v>
+        <v>0.09531520093071941</v>
       </c>
       <c r="G73">
-        <v>1.280542622801977</v>
+        <v>1.25763535434637</v>
       </c>
       <c r="H73">
-        <v>2.027101061777077</v>
+        <v>2.771703951954398</v>
       </c>
       <c r="I73">
-        <v>0.02027101061777077</v>
+        <v>0.02771703951954398</v>
       </c>
       <c r="J73">
-        <v>0.09710356798588939</v>
+        <v>0.1031751607803262</v>
       </c>
       <c r="K73">
-        <v>0.1000493298300739</v>
+        <v>0.09882058260708232</v>
       </c>
       <c r="L73">
-        <v>0.4826498422712934</v>
+        <v>0.4369747899159664</v>
       </c>
       <c r="M73">
-        <v>0.7160883280757098</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1">
-        <v>2012</v>
-      </c>
+        <v>0.3387622149837133</v>
+      </c>
+      <c r="N73">
+        <v>0.4364820846905538</v>
+      </c>
+      <c r="O73">
+        <v>0.2117263843648209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1"/>
       <c r="B74" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>29625.7570977918</v>
+        <v>29710.66666666667</v>
       </c>
       <c r="D74">
-        <v>-0.0374874594748569</v>
+        <v>0.081450390556563</v>
       </c>
       <c r="E74">
-        <v>0.3647451982877918</v>
+        <v>0.1335832185598232</v>
       </c>
       <c r="F74">
-        <v>1.176247341217929</v>
+        <v>0.0884536084902897</v>
       </c>
       <c r="G74">
-        <v>1.277698829202913</v>
+        <v>1.280404203640005</v>
       </c>
       <c r="H74">
-        <v>1.733791629863302</v>
+        <v>2.095498345352564</v>
       </c>
       <c r="I74">
-        <v>0.01733791629863302</v>
+        <v>0.02095498345352564</v>
       </c>
       <c r="J74">
-        <v>0.09399984605080779</v>
+        <v>0.09777923567192592</v>
       </c>
       <c r="K74">
-        <v>0.09982287047420196</v>
+        <v>0.09942768026629487</v>
       </c>
       <c r="L74">
-        <v>0.4794952681388013</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="M74">
-        <v>0.2523659305993691</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.3365384615384616</v>
+      </c>
+      <c r="N74">
+        <v>0.4423076923076923</v>
+      </c>
+      <c r="O74">
+        <v>0.2724358974358974</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>32737</v>
+        <v>29428.75316455696</v>
       </c>
       <c r="D75">
-        <v>0.07253294793188814</v>
+        <v>0.1112866127450647</v>
       </c>
       <c r="E75">
-        <v>0.4111429757470612</v>
+        <v>0.1279568621587794</v>
       </c>
       <c r="F75">
-        <v>1.233621914622716</v>
+        <v>0.06319673027544417</v>
       </c>
       <c r="G75">
-        <v>1.280098188151312</v>
+        <v>1.281071998933835</v>
       </c>
       <c r="H75">
-        <v>1.582058958333333</v>
+        <v>2.026520406909283</v>
       </c>
       <c r="I75">
-        <v>0.01582058958333333</v>
+        <v>0.02026520406909283</v>
       </c>
       <c r="J75">
-        <v>0.09262648087241203</v>
+        <v>0.09712952400512294</v>
       </c>
       <c r="K75">
-        <v>0.09948530737347396</v>
+        <v>0.09996757123460372</v>
       </c>
       <c r="L75">
-        <v>0.4794117647058824</v>
+        <v>0.436</v>
       </c>
       <c r="M75">
-        <v>0.4941176470588236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1"/>
+        <v>0.3449367088607595</v>
+      </c>
+      <c r="N75">
+        <v>0.4462025316455696</v>
+      </c>
+      <c r="O75">
+        <v>0.3196202531645569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1">
+        <v>2012</v>
+      </c>
       <c r="B76" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>33221.26392961877</v>
+        <v>29625.7570977918</v>
       </c>
       <c r="D76">
-        <v>0.6075670055632235</v>
+        <v>0.003385118127161127</v>
       </c>
       <c r="E76">
-        <v>0.4148792677483794</v>
+        <v>0.09026924368472609</v>
       </c>
       <c r="F76">
-        <v>1.140108647823208</v>
+        <v>0.06511100735628388</v>
       </c>
       <c r="G76">
-        <v>1.282454870172888</v>
+        <v>1.277698829202913</v>
       </c>
       <c r="H76">
-        <v>1.654012876344086</v>
+        <v>1.733791629863302</v>
       </c>
       <c r="I76">
-        <v>0.01654012876344086</v>
+        <v>0.01733791629863302</v>
       </c>
       <c r="J76">
-        <v>0.09348742097381414</v>
+        <v>0.09399984605080779</v>
       </c>
       <c r="K76">
-        <v>0.1001105519902348</v>
+        <v>0.09982287047420196</v>
       </c>
       <c r="L76">
-        <v>0.469208211143695</v>
+        <v>0.4110671936758893</v>
       </c>
       <c r="M76">
-        <v>0.6422287390029325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.3280757097791798</v>
+      </c>
+      <c r="N76">
+        <v>0.4700315457413249</v>
+      </c>
+      <c r="O76">
+        <v>0.1514195583596215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>33726.80523255814</v>
+        <v>32737</v>
       </c>
       <c r="D77">
-        <v>0.3907149421822286</v>
+        <v>0.1430581585607356</v>
       </c>
       <c r="E77">
-        <v>0.4178054029052614</v>
+        <v>-0.0468821400037325</v>
       </c>
       <c r="F77">
-        <v>1.118635761588584</v>
+        <v>0.05194772491859394</v>
       </c>
       <c r="G77">
-        <v>1.294219413384581</v>
+        <v>1.280098188151312</v>
       </c>
       <c r="H77">
-        <v>1.850410923934108</v>
+        <v>1.582058958333333</v>
       </c>
       <c r="I77">
-        <v>0.01850410923934108</v>
+        <v>0.01582058958333333</v>
       </c>
       <c r="J77">
-        <v>0.09615727404241592</v>
+        <v>0.09262648087241203</v>
       </c>
       <c r="K77">
-        <v>0.101057155768337</v>
+        <v>0.09948530737347396</v>
       </c>
       <c r="L77">
-        <v>0.4767441860465116</v>
+        <v>0.4375</v>
       </c>
       <c r="M77">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="1">
-        <v>2013</v>
-      </c>
+        <v>0.35</v>
+      </c>
+      <c r="N77">
+        <v>0.45</v>
+      </c>
+      <c r="O77">
+        <v>0.2441176470588235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1"/>
       <c r="B78" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>33692.46376811594</v>
+        <v>33221.26392961877</v>
       </c>
       <c r="D78">
-        <v>0.01750959072491967</v>
+        <v>0.2756811429494583</v>
       </c>
       <c r="E78">
-        <v>0.4125208977723541</v>
+        <v>-0.04274563148274063</v>
       </c>
       <c r="F78">
-        <v>1.081723428630413</v>
+        <v>0.05422717076078257</v>
       </c>
       <c r="G78">
-        <v>1.309575183808684</v>
+        <v>1.282454870172888</v>
       </c>
       <c r="H78">
-        <v>2.074587362318841</v>
+        <v>1.654012876344086</v>
       </c>
       <c r="I78">
-        <v>0.02074587362318841</v>
+        <v>0.01654012876344086</v>
       </c>
       <c r="J78">
-        <v>0.09932038465170946</v>
+        <v>0.09348742097381414</v>
       </c>
       <c r="K78">
-        <v>0.1016569645634182</v>
+        <v>0.1001105519902348</v>
       </c>
       <c r="L78">
-        <v>0.4753623188405797</v>
+        <v>0.4080882352941176</v>
       </c>
       <c r="M78">
-        <v>0.263768115942029</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.3255131964809384</v>
+      </c>
+      <c r="N78">
+        <v>0.4721407624633431</v>
+      </c>
+      <c r="O78">
+        <v>0.313782991202346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>32375.25538461539</v>
+        <v>33342.10787172012</v>
       </c>
       <c r="D79">
-        <v>0.1616840216016777</v>
+        <v>0.118770426448769</v>
       </c>
       <c r="E79">
-        <v>0.4449506590425059</v>
+        <v>-0.04376677712978157</v>
       </c>
       <c r="F79">
-        <v>1.151926172135033</v>
+        <v>0.04458129279189858</v>
       </c>
       <c r="G79">
-        <v>1.259000607119648</v>
+        <v>1.294872691420931</v>
       </c>
       <c r="H79">
-        <v>2.608117425641026</v>
+        <v>1.85034353595724</v>
       </c>
       <c r="I79">
-        <v>0.02608117425641026</v>
+        <v>0.0185034353595724</v>
       </c>
       <c r="J79">
-        <v>0.1016212106835892</v>
+        <v>0.09619579684482822</v>
       </c>
       <c r="K79">
-        <v>0.09936952418175901</v>
+        <v>0.1009999284666117</v>
       </c>
       <c r="L79">
-        <v>0.4892307692307692</v>
+        <v>0.3927272727272727</v>
       </c>
       <c r="M79">
-        <v>0.5076923076923077</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="1"/>
+        <v>0.3148688046647231</v>
+      </c>
+      <c r="N79">
+        <v>0.4868804664723032</v>
+      </c>
+      <c r="O79">
+        <v>0.3469387755102041</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1">
+        <v>2013</v>
+      </c>
       <c r="B80" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>32688.53230769231</v>
+        <v>33692.46376811594</v>
       </c>
       <c r="D80">
-        <v>0.1277577661041987</v>
+        <v>-0.006037230448911212</v>
       </c>
       <c r="E80">
-        <v>0.4459833268381388</v>
+        <v>-0.07857799900353123</v>
       </c>
       <c r="F80">
-        <v>1.137740597115943</v>
+        <v>0.05107039279299826</v>
       </c>
       <c r="G80">
-        <v>1.258617908564764</v>
+        <v>1.309575183808684</v>
       </c>
       <c r="H80">
-        <v>2.616123168717948</v>
+        <v>2.074587362318841</v>
       </c>
       <c r="I80">
-        <v>0.02616123168717949</v>
+        <v>0.02074587362318841</v>
       </c>
       <c r="J80">
-        <v>0.1016783062010653</v>
+        <v>0.09932038465170946</v>
       </c>
       <c r="K80">
-        <v>0.0998596462515694</v>
+        <v>0.1016569645634182</v>
       </c>
       <c r="L80">
-        <v>0.5015384615384615</v>
+        <v>0.3898916967509025</v>
       </c>
       <c r="M80">
-        <v>0.6584615384615384</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.3130434782608696</v>
+      </c>
+      <c r="N80">
+        <v>0.4898550724637681</v>
+      </c>
+      <c r="O80">
+        <v>0.1623188405797101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>32580.833836858</v>
+        <v>32375.25538461539</v>
       </c>
       <c r="D81">
-        <v>0.3744954113894944</v>
+        <v>0.07451915636130889</v>
       </c>
       <c r="E81">
-        <v>0.4345146560839988</v>
+        <v>0.1260552143133946</v>
       </c>
       <c r="F81">
-        <v>1.055757059263516</v>
+        <v>0.08467642619056578</v>
       </c>
       <c r="G81">
-        <v>1.278602576012916</v>
+        <v>1.259000607119648</v>
       </c>
       <c r="H81">
-        <v>2.758534767371601</v>
+        <v>2.608117425641026</v>
       </c>
       <c r="I81">
-        <v>0.02758534767371601</v>
+        <v>0.02608117425641026</v>
       </c>
       <c r="J81">
-        <v>0.104301502234491</v>
+        <v>0.1016212106835892</v>
       </c>
       <c r="K81">
-        <v>0.1006649322769999</v>
+        <v>0.09936952418175901</v>
       </c>
       <c r="L81">
-        <v>0.5740181268882175</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="M81">
-        <v>0.7522658610271903</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="1">
-        <v>2014</v>
-      </c>
+        <v>0.3046153846153846</v>
+      </c>
+      <c r="N81">
+        <v>0.4984615384615385</v>
+      </c>
+      <c r="O81">
+        <v>0.2646153846153846</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1"/>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82">
-        <v>32670.89090909091</v>
+        <v>32688.53230769231</v>
       </c>
       <c r="D82">
-        <v>-0.08958276395082854</v>
+        <v>0.09456252635217452</v>
       </c>
       <c r="E82">
-        <v>0.4328192094768616</v>
+        <v>0.118245187599227</v>
       </c>
       <c r="F82">
-        <v>1.040285779291904</v>
+        <v>0.07315348844346053</v>
       </c>
       <c r="G82">
-        <v>1.275113781334579</v>
+        <v>1.258617908564764</v>
       </c>
       <c r="H82">
-        <v>2.620369053535353</v>
+        <v>2.616123168717948</v>
       </c>
       <c r="I82">
-        <v>0.02620369053535353</v>
+        <v>0.02616123168717949</v>
       </c>
       <c r="J82">
-        <v>0.1027105174154283</v>
+        <v>0.1016783062010653</v>
       </c>
       <c r="K82">
-        <v>0.1008085924632875</v>
+        <v>0.0998596462515694</v>
       </c>
       <c r="L82">
-        <v>0.5666666666666667</v>
+        <v>0.3740458015267176</v>
       </c>
       <c r="M82">
-        <v>0.2545454545454545</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.3015384615384615</v>
+      </c>
+      <c r="N82">
+        <v>0.5046153846153846</v>
+      </c>
+      <c r="O82">
+        <v>0.3353846153846154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>36952.14121037464</v>
+        <v>32580.833836858</v>
       </c>
       <c r="D83">
-        <v>0.06386133065354566</v>
+        <v>0.1447420686948928</v>
       </c>
       <c r="E83">
-        <v>0.4657144085764535</v>
+        <v>0.1123682478175137</v>
       </c>
       <c r="F83">
-        <v>0.9856799182079562</v>
+        <v>0.1010375855605469</v>
       </c>
       <c r="G83">
-        <v>1.190603178795423</v>
+        <v>1.278602576012916</v>
       </c>
       <c r="H83">
-        <v>2.494083046589817</v>
+        <v>2.758534767371601</v>
       </c>
       <c r="I83">
-        <v>0.02494083046589817</v>
+        <v>0.02758534767371601</v>
       </c>
       <c r="J83">
-        <v>0.09637702119362355</v>
+        <v>0.104301502234491</v>
       </c>
       <c r="K83">
-        <v>0.1005871994533357</v>
+        <v>0.1006649322769999</v>
       </c>
       <c r="L83">
-        <v>0.5648414985590778</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="M83">
-        <v>0.5043227665706052</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1"/>
+        <v>0.2870090634441088</v>
+      </c>
+      <c r="N83">
+        <v>0.513595166163142</v>
+      </c>
+      <c r="O83">
+        <v>0.3262839879154079</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1">
+        <v>2014</v>
+      </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>38022.50857142857</v>
+        <v>32734.54407294833</v>
       </c>
       <c r="D84">
-        <v>0.20531191233671</v>
+        <v>-0.03140564990517484</v>
       </c>
       <c r="E84">
-        <v>0.45867590707886</v>
+        <v>0.1114928981029818</v>
       </c>
       <c r="F84">
-        <v>0.9713744090553869</v>
+        <v>0.09881598579482924</v>
       </c>
       <c r="G84">
-        <v>1.173426343009915</v>
+        <v>1.277101104672326</v>
       </c>
       <c r="H84">
-        <v>2.342257759047619</v>
+        <v>2.620387867274569</v>
       </c>
       <c r="I84">
-        <v>0.02342257759047619</v>
+        <v>0.02620387867274569</v>
       </c>
       <c r="J84">
-        <v>0.0938281581710711</v>
+        <v>0.1028299449530852</v>
       </c>
       <c r="K84">
-        <v>0.1004197532690475</v>
+        <v>0.1008745548957316</v>
       </c>
       <c r="L84">
-        <v>0.5628571428571428</v>
+        <v>0.3560606060606061</v>
       </c>
       <c r="M84">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N84">
+        <v>0.5167173252279635</v>
+      </c>
+      <c r="O84">
+        <v>0.1550151975683891</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>38806.34733893557</v>
+        <v>36904.66379310345</v>
       </c>
       <c r="D85">
-        <v>0.3347153665313084</v>
+        <v>0.06419794975389789</v>
       </c>
       <c r="E85">
-        <v>0.4469736521989144</v>
+        <v>0.1391894075360197</v>
       </c>
       <c r="F85">
-        <v>0.9158717095691034</v>
+        <v>0.1114901634036152</v>
       </c>
       <c r="G85">
-        <v>1.141991148193333</v>
+        <v>1.19018736489048</v>
       </c>
       <c r="H85">
-        <v>1.990687358543417</v>
+        <v>2.494036849137931</v>
       </c>
       <c r="I85">
-        <v>0.01990687358543418</v>
+        <v>0.02494036849137931</v>
       </c>
       <c r="J85">
-        <v>0.08842634247703418</v>
+        <v>0.09635161038480813</v>
       </c>
       <c r="K85">
-        <v>0.1003214356160696</v>
+        <v>0.1005500355134159</v>
       </c>
       <c r="L85">
-        <v>0.5658263305322129</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="M85">
-        <v>0.7563025210084033</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1">
-        <v>2015</v>
-      </c>
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="N85">
+        <v>0.4913793103448276</v>
+      </c>
+      <c r="O85">
+        <v>0.2614942528735632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1"/>
       <c r="B86" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>38909.10198300283</v>
+        <v>38022.50857142857</v>
       </c>
       <c r="D86">
-        <v>0.01886991592145975</v>
+        <v>0.08529402340680309</v>
       </c>
       <c r="E86">
-        <v>0.4501715068201008</v>
+        <v>0.1132503090919153</v>
       </c>
       <c r="F86">
-        <v>0.9117116897085352</v>
+        <v>0.1109145204741411</v>
       </c>
       <c r="G86">
-        <v>1.134800731989074</v>
+        <v>1.173426343009915</v>
       </c>
       <c r="H86">
-        <v>2.041857513220019</v>
+        <v>2.342257759047619</v>
       </c>
       <c r="I86">
-        <v>0.02041857513220019</v>
+        <v>0.02342257759047619</v>
       </c>
       <c r="J86">
-        <v>0.0885066190515446</v>
+        <v>0.0938281581710711</v>
       </c>
       <c r="K86">
-        <v>0.1006628068556222</v>
+        <v>0.1004197532690475</v>
       </c>
       <c r="L86">
-        <v>0.5637393767705382</v>
+        <v>0.3701067615658363</v>
       </c>
       <c r="M86">
-        <v>0.2719546742209632</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.2971428571428572</v>
+      </c>
+      <c r="N86">
+        <v>0.5057142857142857</v>
+      </c>
+      <c r="O86">
+        <v>0.3085714285714286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>37791.32112676057</v>
+        <v>38492.8676056338</v>
       </c>
       <c r="D87">
-        <v>0.119651717160257</v>
+        <v>0.09543270804815469</v>
       </c>
       <c r="E87">
-        <v>0.2111014222625034</v>
+        <v>0.06769567435325015</v>
       </c>
       <c r="F87">
-        <v>0.7831974108007209</v>
+        <v>0.09984690650014763</v>
       </c>
       <c r="G87">
-        <v>1.168386305428505</v>
+        <v>1.143688812817413</v>
       </c>
       <c r="H87">
-        <v>2.219348605633803</v>
+        <v>1.990741559624413</v>
       </c>
       <c r="I87">
-        <v>0.02219348605633803</v>
+        <v>0.01990741559624414</v>
       </c>
       <c r="J87">
-        <v>0.09229666438204831</v>
+        <v>0.08852874436528892</v>
       </c>
       <c r="K87">
-        <v>0.1021743177999683</v>
+        <v>0.1004018163602722</v>
       </c>
       <c r="L87">
-        <v>0.543661971830986</v>
+        <v>0.3649122807017544</v>
       </c>
       <c r="M87">
-        <v>0.5014084507042254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="1"/>
+        <v>0.2929577464788732</v>
+      </c>
+      <c r="N87">
+        <v>0.5098591549295775</v>
+      </c>
+      <c r="O87">
+        <v>0.3436619718309859</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1">
+        <v>2015</v>
+      </c>
       <c r="B88" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>37919.63352272727</v>
+        <v>38909.10198300283</v>
       </c>
       <c r="D88">
-        <v>0.2480507030746998</v>
+        <v>0.02569348640670168</v>
       </c>
       <c r="E88">
-        <v>0.2070895505963633</v>
+        <v>0.07163041819535242</v>
       </c>
       <c r="F88">
-        <v>0.7818589009399409</v>
+        <v>0.1052450742616323</v>
       </c>
       <c r="G88">
-        <v>1.165181064953463</v>
+        <v>1.134800731989074</v>
       </c>
       <c r="H88">
-        <v>2.126938055871213</v>
+        <v>2.041857513220019</v>
       </c>
       <c r="I88">
-        <v>0.02126938055871212</v>
+        <v>0.02041857513220019</v>
       </c>
       <c r="J88">
-        <v>0.09118024445591986</v>
+        <v>0.0885066190515446</v>
       </c>
       <c r="K88">
-        <v>0.1024555016529599</v>
+        <v>0.1006628068556222</v>
       </c>
       <c r="L88">
-        <v>0.5539772727272727</v>
+        <v>0.353356890459364</v>
       </c>
       <c r="M88">
-        <v>0.6278409090909091</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.28328611898017</v>
+      </c>
+      <c r="N88">
+        <v>0.5184135977337111</v>
+      </c>
+      <c r="O88">
+        <v>0.1926345609065156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>38104.45454545454</v>
+        <v>37430.0593220339</v>
       </c>
       <c r="D89">
-        <v>0.3274406493792025</v>
+        <v>0.0562203399315636</v>
       </c>
       <c r="E89">
-        <v>0.2064683879746422</v>
+        <v>-0.04783867829481298</v>
       </c>
       <c r="F89">
-        <v>0.8234024523860115</v>
+        <v>0.01799001202483472</v>
       </c>
       <c r="G89">
-        <v>1.158724204500667</v>
+        <v>1.168957990920109</v>
       </c>
       <c r="H89">
-        <v>1.991149230587121</v>
+        <v>2.219258441619586</v>
       </c>
       <c r="I89">
-        <v>0.01991149230587121</v>
+        <v>0.02219258441619586</v>
       </c>
       <c r="J89">
-        <v>0.08943494457591127</v>
+        <v>0.09233006387140243</v>
       </c>
       <c r="K89">
-        <v>0.1022414102966559</v>
+        <v>0.1021693743164061</v>
       </c>
       <c r="L89">
-        <v>0.5681818181818182</v>
+        <v>0.3310344827586207</v>
       </c>
       <c r="M89">
-        <v>0.7130681818181818</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="1">
-        <v>2016</v>
-      </c>
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="N89">
+        <v>0.5480225988700564</v>
+      </c>
+      <c r="O89">
+        <v>0.2514124293785311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1"/>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>38318.40229885057</v>
+        <v>37919.63352272727</v>
       </c>
       <c r="D90">
-        <v>0.04765151224781661</v>
+        <v>0.07715933406215338</v>
       </c>
       <c r="E90">
-        <v>0.2244554233095878</v>
+        <v>-0.04636801116600953</v>
       </c>
       <c r="F90">
-        <v>0.1740668390696442</v>
+        <v>0.02588557805098008</v>
       </c>
       <c r="G90">
-        <v>1.179528053550253</v>
+        <v>1.165181064953463</v>
       </c>
       <c r="H90">
-        <v>1.831679199712644</v>
+        <v>2.126938055871213</v>
       </c>
       <c r="I90">
-        <v>0.01831679199712644</v>
+        <v>0.02126938055871212</v>
       </c>
       <c r="J90">
-        <v>0.08908847521014158</v>
+        <v>0.09118024445591986</v>
       </c>
       <c r="K90">
-        <v>0.1022527812978527</v>
+        <v>0.1024555016529599</v>
       </c>
       <c r="L90">
-        <v>0.5632183908045977</v>
+        <v>0.3368055555555556</v>
       </c>
       <c r="M90">
-        <v>0.2385057471264368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.2755681818181818</v>
+      </c>
+      <c r="N90">
+        <v>0.5426136363636364</v>
+      </c>
+      <c r="O90">
+        <v>0.2982954545454545</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="1"/>
       <c r="B91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>41579.28065395095</v>
+        <v>38104.45454545454</v>
       </c>
       <c r="D91">
-        <v>0.0524835828051089</v>
+        <v>0.09199625924646858</v>
       </c>
       <c r="E91">
-        <v>0.6148493272247643</v>
+        <v>-0.0410615246595406</v>
       </c>
       <c r="F91">
-        <v>0.4990144583812063</v>
+        <v>0.03854823104735006</v>
       </c>
       <c r="G91">
-        <v>1.15846673491582</v>
+        <v>1.158724204500667</v>
       </c>
       <c r="H91">
-        <v>1.545545823796549</v>
+        <v>1.991149230587121</v>
       </c>
       <c r="I91">
-        <v>0.01545545823796549</v>
+        <v>0.01991149230587121</v>
       </c>
       <c r="J91">
-        <v>0.0849634623329147</v>
+        <v>0.08943494457591127</v>
       </c>
       <c r="K91">
-        <v>0.1016916497694358</v>
+        <v>0.1022414102966559</v>
       </c>
       <c r="L91">
-        <v>0.5831062670299727</v>
+        <v>0.3286713286713286</v>
       </c>
       <c r="M91">
-        <v>0.5340599455040872</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="1"/>
+        <v>0.2670454545454545</v>
+      </c>
+      <c r="N91">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="O91">
+        <v>0.3210227272727273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
+        <v>2016</v>
+      </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>43119.69518716577</v>
+        <v>38318.40229885057</v>
       </c>
       <c r="D92">
-        <v>0.2361103931316684</v>
+        <v>0.01682270636654889</v>
       </c>
       <c r="E92">
-        <v>0.6134800140017774</v>
+        <v>-0.06141570993370579</v>
       </c>
       <c r="F92">
-        <v>0.4981065882008204</v>
+        <v>0.03359426682272748</v>
       </c>
       <c r="G92">
-        <v>1.128235380918509</v>
+        <v>1.179528053550253</v>
       </c>
       <c r="H92">
-        <v>2.026901870320855</v>
+        <v>1.831679199712644</v>
       </c>
       <c r="I92">
-        <v>0.02026901870320856</v>
+        <v>0.01831679199712644</v>
       </c>
       <c r="J92">
-        <v>0.08796314155831909</v>
+        <v>0.08908847521014158</v>
       </c>
       <c r="K92">
-        <v>0.1015321972395789</v>
+        <v>0.1022527812978527</v>
       </c>
       <c r="L92">
-        <v>0.5775401069518716</v>
+        <v>0.3180212014134275</v>
       </c>
       <c r="M92">
-        <v>0.6764705882352942</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.2586206896551724</v>
+      </c>
+      <c r="N92">
+        <v>0.5545977011494253</v>
+      </c>
+      <c r="O92">
+        <v>0.1609195402298851</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>43383.06504065041</v>
+        <v>41793.8855585831</v>
       </c>
       <c r="D93">
-        <v>-0.6456572055879644</v>
+        <v>0.08851777410765804</v>
       </c>
       <c r="E93">
-        <v>0.5823929608877301</v>
+        <v>0.0798692713248887</v>
       </c>
       <c r="F93">
-        <v>0.4826431193158607</v>
+        <v>0.1638561511686605</v>
       </c>
       <c r="G93">
-        <v>1.094438405675453</v>
+        <v>1.157964717482172</v>
       </c>
       <c r="H93">
-        <v>2.368879266937669</v>
+        <v>1.545222620799273</v>
       </c>
       <c r="I93">
-        <v>0.02368879266937669</v>
+        <v>0.01545222620799273</v>
       </c>
       <c r="J93">
-        <v>0.08935509700990388</v>
+        <v>0.08493010925692303</v>
       </c>
       <c r="K93">
-        <v>0.1011144435978796</v>
+        <v>0.101606679187849</v>
       </c>
       <c r="L93">
-        <v>0.5745257452574526</v>
+        <v>0.3498349834983498</v>
       </c>
       <c r="M93">
-        <v>0.7615176151761518</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="1">
-        <v>2017</v>
-      </c>
+        <v>0.2888283378746594</v>
+      </c>
+      <c r="N93">
+        <v>0.5367847411444142</v>
+      </c>
+      <c r="O93">
+        <v>0.2833787465940055</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1"/>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>43426.63783783784</v>
+        <v>43119.69518716577</v>
       </c>
       <c r="D94">
-        <v>0.07563338935704193</v>
+        <v>0.0840520082502321</v>
       </c>
       <c r="E94">
-        <v>0.5974669521009078</v>
+        <v>0.08138103535514818</v>
       </c>
       <c r="F94">
-        <v>0.4750495551956195</v>
+        <v>0.1642619511201066</v>
       </c>
       <c r="G94">
-        <v>1.087743810868641</v>
+        <v>1.128235380918509</v>
       </c>
       <c r="H94">
-        <v>2.290652462387388</v>
+        <v>2.026901870320855</v>
       </c>
       <c r="I94">
-        <v>0.02290652462387387</v>
+        <v>0.02026901870320856</v>
       </c>
       <c r="J94">
-        <v>0.08817115327599231</v>
+        <v>0.08796314155831909</v>
       </c>
       <c r="K94">
-        <v>0.1006678195554354</v>
+        <v>0.1015321972395789</v>
       </c>
       <c r="L94">
-        <v>0.5756756756756757</v>
+        <v>0.3483870967741935</v>
       </c>
       <c r="M94">
-        <v>0.2594594594594595</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.2887700534759358</v>
+      </c>
+      <c r="N94">
+        <v>0.5401069518716578</v>
+      </c>
+      <c r="O94">
+        <v>0.3048128342245989</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>44841.51530612245</v>
+        <v>43383.06504065041</v>
       </c>
       <c r="D95">
-        <v>0.1382914687544984</v>
+        <v>0.1006029878913292</v>
       </c>
       <c r="E95">
-        <v>0.1797013421835016</v>
+        <v>0.09954844538738758</v>
       </c>
       <c r="F95">
-        <v>0.3948993918799057</v>
+        <v>0.1485053720171233</v>
       </c>
       <c r="G95">
-        <v>1.084987827722601</v>
+        <v>1.094438405675453</v>
       </c>
       <c r="H95">
-        <v>2.271825014030612</v>
+        <v>2.368879266937669</v>
       </c>
       <c r="I95">
-        <v>0.02271825014030612</v>
+        <v>0.02368879266937669</v>
       </c>
       <c r="J95">
-        <v>0.08781751980366222</v>
+        <v>0.08935509700990388</v>
       </c>
       <c r="K95">
-        <v>0.09974282817882044</v>
+        <v>0.1011144435978796</v>
       </c>
       <c r="L95">
-        <v>0.576530612244898</v>
+        <v>0.3344155844155844</v>
       </c>
       <c r="M95">
-        <v>0.5357142857142857</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="1"/>
+        <v>0.2791327913279133</v>
+      </c>
+      <c r="N95">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="O95">
+        <v>0.3414634146341464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1">
+        <v>2017</v>
+      </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>45263.53213367609</v>
+        <v>43426.63783783784</v>
       </c>
       <c r="D96">
-        <v>0.2320776849953057</v>
+        <v>0.03214407649825022</v>
       </c>
       <c r="E96">
-        <v>0.1669833613851158</v>
+        <v>0.1204490913382716</v>
       </c>
       <c r="F96">
-        <v>0.3785166701786239</v>
+        <v>0.1484016064378216</v>
       </c>
       <c r="G96">
-        <v>1.090809712368012</v>
+        <v>1.087743810868641</v>
       </c>
       <c r="H96">
-        <v>2.395919961439589</v>
+        <v>2.290652462387388</v>
       </c>
       <c r="I96">
-        <v>0.02395919961439589</v>
+        <v>0.02290652462387387</v>
       </c>
       <c r="J96">
-        <v>0.08940778235647662</v>
+        <v>0.08817115327599231</v>
       </c>
       <c r="K96">
-        <v>0.09886359008165264</v>
+        <v>0.1006678195554354</v>
       </c>
       <c r="L96">
-        <v>0.5758354755784062</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="M96">
-        <v>0.6786632390745502</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.2918918918918919</v>
+      </c>
+      <c r="N96">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="O96">
+        <v>0.172972972972973</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1"/>
       <c r="B97" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>45491.39119170984</v>
+        <v>44841.51530612245</v>
       </c>
       <c r="D97">
-        <v>0.4329366119181802</v>
+        <v>0.07041485489637873</v>
       </c>
       <c r="E97">
-        <v>0.1688504414030103</v>
+        <v>0.07172116910210927</v>
       </c>
       <c r="F97">
-        <v>0.3810149682169289</v>
+        <v>0.08343493693830226</v>
       </c>
       <c r="G97">
-        <v>1.05904076642559</v>
+        <v>1.084987827722601</v>
       </c>
       <c r="H97">
-        <v>2.754008966105354</v>
+        <v>2.271825014030612</v>
       </c>
       <c r="I97">
-        <v>0.02754008966105354</v>
+        <v>0.02271825014030612</v>
       </c>
       <c r="J97">
-        <v>0.09108253564658893</v>
+        <v>0.08781751980366222</v>
       </c>
       <c r="K97">
-        <v>0.09811442556937026</v>
+        <v>0.09974282817882044</v>
       </c>
       <c r="L97">
-        <v>0.5854922279792746</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="M97">
-        <v>0.7487046632124352</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="1">
-        <v>2018</v>
-      </c>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N97">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="O97">
+        <v>0.2780612244897959</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1"/>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>45238.79792746114</v>
+        <v>45263.53213367609</v>
       </c>
       <c r="D98">
-        <v>0.02389719960891117</v>
+        <v>0.07318427846856122</v>
       </c>
       <c r="E98">
-        <v>0.1649386478327602</v>
+        <v>0.05868284747959494</v>
       </c>
       <c r="F98">
-        <v>0.374280740807548</v>
+        <v>0.07385868881487569</v>
       </c>
       <c r="G98">
-        <v>1.04516002108295</v>
+        <v>1.090809712368012</v>
       </c>
       <c r="H98">
-        <v>2.876366702504318</v>
+        <v>2.395919961439589</v>
       </c>
       <c r="I98">
-        <v>0.02876366702504318</v>
+        <v>0.02395919961439589</v>
       </c>
       <c r="J98">
-        <v>0.09147326829002016</v>
+        <v>0.08940778235647662</v>
       </c>
       <c r="K98">
-        <v>0.09788308290227926</v>
+        <v>0.09886359008165264</v>
       </c>
       <c r="L98">
-        <v>0.5803108808290155</v>
+        <v>0.3312883435582822</v>
       </c>
       <c r="M98">
-        <v>0.233160621761658</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.2776349614395887</v>
+      </c>
+      <c r="N98">
+        <v>0.5604113110539846</v>
+      </c>
+      <c r="O98">
+        <v>0.3264781491002571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1"/>
       <c r="B99" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>45599.57393483709</v>
+        <v>45491.39119170984</v>
       </c>
       <c r="D99">
-        <v>0.1616212332637482</v>
+        <v>0.09446074024473602</v>
       </c>
       <c r="E99">
-        <v>0.1668686311620147</v>
+        <v>0.04910539414511676</v>
       </c>
       <c r="F99">
-        <v>0.1667321123411951</v>
+        <v>0.08168240370361561</v>
       </c>
       <c r="G99">
-        <v>1.037235865213091</v>
+        <v>1.05904076642559</v>
       </c>
       <c r="H99">
-        <v>2.957118895781119</v>
+        <v>2.754008966105354</v>
       </c>
       <c r="I99">
-        <v>0.0295711889578112</v>
+        <v>0.02754008966105354</v>
       </c>
       <c r="J99">
-        <v>0.09180534087059669</v>
+        <v>0.09108253564658893</v>
       </c>
       <c r="K99">
-        <v>0.09703793390592801</v>
+        <v>0.09811442556937026</v>
       </c>
       <c r="L99">
-        <v>0.5739348370927319</v>
+        <v>0.3067484662576687</v>
       </c>
       <c r="M99">
-        <v>0.5213032581453634</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="1"/>
+        <v>0.2590673575129533</v>
+      </c>
+      <c r="N99">
+        <v>0.5854922279792746</v>
+      </c>
+      <c r="O99">
+        <v>0.3367875647668394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1">
+        <v>2018</v>
+      </c>
       <c r="B100" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>45513.84210526316</v>
+        <v>45238.79792746114</v>
       </c>
       <c r="D100">
-        <v>0.2429370163761613</v>
+        <v>0.01645521947111548</v>
       </c>
       <c r="E100">
-        <v>0.1683526909184575</v>
+        <v>0.05440208924730421</v>
       </c>
       <c r="F100">
-        <v>0.1671762871489985</v>
+        <v>0.08172981799401632</v>
       </c>
       <c r="G100">
-        <v>1.037205651463062</v>
+        <v>1.04516002108295</v>
       </c>
       <c r="H100">
-        <v>3.047265773705096</v>
+        <v>2.876366702504318</v>
       </c>
       <c r="I100">
-        <v>0.03047265773705096</v>
+        <v>0.02876366702504318</v>
       </c>
       <c r="J100">
-        <v>0.09270499682483466</v>
+        <v>0.09147326829002016</v>
       </c>
       <c r="K100">
-        <v>0.0969326420408381</v>
+        <v>0.09788308290227926</v>
       </c>
       <c r="L100">
-        <v>0.5689223057644111</v>
+        <v>0.3128834355828221</v>
       </c>
       <c r="M100">
-        <v>0.6716791979949874</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.2642487046632124</v>
+      </c>
+      <c r="N100">
+        <v>0.5803108808290155</v>
+      </c>
+      <c r="O100">
+        <v>0.1528497409326425</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>46561.55919395466</v>
+        <v>45599.57393483709</v>
       </c>
       <c r="D101">
-        <v>0.5454190868888584</v>
+        <v>0.0521840093483122</v>
       </c>
       <c r="E101">
-        <v>0.1721185942021518</v>
+        <v>0.06092329052746406</v>
       </c>
       <c r="F101">
-        <v>0.1741578348621376</v>
+        <v>0.1003432985917509</v>
       </c>
       <c r="G101">
-        <v>1.07637514232706</v>
+        <v>1.037235865213091</v>
       </c>
       <c r="H101">
-        <v>2.631330873950462</v>
+        <v>2.957118895781119</v>
       </c>
       <c r="I101">
-        <v>0.02631330873950462</v>
+        <v>0.0295711889578112</v>
       </c>
       <c r="J101">
-        <v>0.09089581727912821</v>
+        <v>0.09180534087059669</v>
       </c>
       <c r="K101">
-        <v>0.09663334334408338</v>
+        <v>0.09703793390592801</v>
       </c>
       <c r="L101">
-        <v>0.5717884130982368</v>
+        <v>0.3263473053892216</v>
       </c>
       <c r="M101">
-        <v>0.7657430730478589</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="1">
-        <v>2019</v>
-      </c>
+        <v>0.2731829573934837</v>
+      </c>
+      <c r="N101">
+        <v>0.5639097744360902</v>
+      </c>
+      <c r="O101">
+        <v>0.2706766917293233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1"/>
       <c r="B102" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102">
-        <v>46973.75689223058</v>
+        <v>45513.84210526316</v>
       </c>
       <c r="D102">
-        <v>-0.05289862690645961</v>
+        <v>0.08919141631418565</v>
       </c>
       <c r="E102">
-        <v>0.1721467210326968</v>
+        <v>0.06777796313599616</v>
       </c>
       <c r="F102">
-        <v>0.1695733492983728</v>
+        <v>0.1069154049220641</v>
       </c>
       <c r="G102">
-        <v>1.085291720677752</v>
+        <v>1.037205651463062</v>
       </c>
       <c r="H102">
-        <v>2.234776367794487</v>
+        <v>3.047265773705096</v>
       </c>
       <c r="I102">
-        <v>0.02234776367794486</v>
+        <v>0.03047265773705096</v>
       </c>
       <c r="J102">
-        <v>0.08746526691860997</v>
+        <v>0.09270499682483466</v>
       </c>
       <c r="K102">
-        <v>0.09641917546743028</v>
+        <v>0.0969326420408381</v>
       </c>
       <c r="L102">
-        <v>0.5689223057644111</v>
+        <v>0.322289156626506</v>
       </c>
       <c r="M102">
-        <v>0.2330827067669173</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>0.2681704260651629</v>
+      </c>
+      <c r="N102">
+        <v>0.5639097744360902</v>
+      </c>
+      <c r="O102">
+        <v>0.3132832080200501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1"/>
       <c r="B103" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>48606.40801886792</v>
+        <v>46561.55919395466</v>
       </c>
       <c r="D103">
-        <v>0.1066404434371639</v>
+        <v>0.1935840760405021</v>
       </c>
       <c r="E103">
-        <v>0.1726356500333655</v>
+        <v>0.07171459965248449</v>
       </c>
       <c r="F103">
-        <v>0.1881635784201558</v>
+        <v>0.100571393435256</v>
       </c>
       <c r="G103">
-        <v>1.112268482902107</v>
+        <v>1.07637514232706</v>
       </c>
       <c r="H103">
-        <v>1.792880907036164</v>
+        <v>2.631330873950462</v>
       </c>
       <c r="I103">
-        <v>0.01792880907036164</v>
+        <v>0.02631330873950462</v>
       </c>
       <c r="J103">
-        <v>0.08466491804448802</v>
+        <v>0.09089581727912821</v>
       </c>
       <c r="K103">
-        <v>0.09724026073127365</v>
+        <v>0.09663334334408338</v>
       </c>
       <c r="L103">
-        <v>0.5731132075471698</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="M103">
-        <v>0.5165094339622641</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="1"/>
+        <v>0.2720403022670025</v>
+      </c>
+      <c r="N103">
+        <v>0.6574307304785895</v>
+      </c>
+      <c r="O103">
+        <v>0.3702770780856423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1">
+        <v>2019</v>
+      </c>
       <c r="B104" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>49562.77803738318</v>
+        <v>46973.75689223058</v>
       </c>
       <c r="D104">
-        <v>0.2215317431923749</v>
+        <v>-0.06913322964184819</v>
       </c>
       <c r="E104">
-        <v>0.1861300528255771</v>
+        <v>0.07467473147384862</v>
       </c>
       <c r="F104">
-        <v>0.192757222485949</v>
+        <v>0.08930377000840244</v>
       </c>
       <c r="G104">
-        <v>1.111804277758545</v>
+        <v>1.085291720677752</v>
       </c>
       <c r="H104">
-        <v>1.718657158294392</v>
+        <v>2.234776367794487</v>
       </c>
       <c r="I104">
-        <v>0.01718657158294393</v>
+        <v>0.02234776367794486</v>
       </c>
       <c r="J104">
-        <v>0.08389482824845663</v>
+        <v>0.08746526691860997</v>
       </c>
       <c r="K104">
-        <v>0.09682048633414313</v>
+        <v>0.09641917546743028</v>
       </c>
       <c r="L104">
-        <v>0.5724299065420561</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="M104">
-        <v>0.6378504672897196</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>0.2706766917293233</v>
+      </c>
+      <c r="N104">
+        <v>0.6541353383458647</v>
+      </c>
+      <c r="O104">
+        <v>0.1553884711779449</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1"/>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>48862.26157407407</v>
+        <v>48606.40801886792</v>
       </c>
       <c r="D105">
-        <v>0.2868066148062878</v>
+        <v>0.06061825269021421</v>
       </c>
       <c r="E105">
-        <v>0.1943147512122637</v>
+        <v>0.086414966761394</v>
       </c>
       <c r="F105">
-        <v>0.1808379350383816</v>
+        <v>0.08840196236993289</v>
       </c>
       <c r="G105">
-        <v>1.11111619073405</v>
+        <v>1.112268482902107</v>
       </c>
       <c r="H105">
-        <v>1.518713900733025</v>
+        <v>1.792880907036164</v>
       </c>
       <c r="I105">
-        <v>0.01518713900733025</v>
+        <v>0.01792880907036164</v>
       </c>
       <c r="J105">
-        <v>0.08185411045137322</v>
+        <v>0.08466491804448802</v>
       </c>
       <c r="K105">
-        <v>0.09603844644741336</v>
+        <v>0.09724026073127365</v>
       </c>
       <c r="L105">
-        <v>0.5763888888888888</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="M105">
-        <v>0.7430555555555556</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="1">
-        <v>2020</v>
-      </c>
+        <v>0.2688679245283019</v>
+      </c>
+      <c r="N105">
+        <v>0.6509433962264151</v>
+      </c>
+      <c r="O105">
+        <v>0.2900943396226415</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1"/>
       <c r="B106" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>48829.84439359268</v>
+        <v>49562.77803738318</v>
       </c>
       <c r="D106">
-        <v>-0.2932639044197629</v>
+        <v>0.07535306242662324</v>
       </c>
       <c r="E106">
-        <v>0.18409635089217</v>
+        <v>0.08446917771065018</v>
       </c>
       <c r="F106">
-        <v>0.1817817891091409</v>
+        <v>0.0880847958570134</v>
       </c>
       <c r="G106">
-        <v>1.232393981097888</v>
+        <v>1.111804277758545</v>
       </c>
       <c r="H106">
-        <v>0.7294560144736842</v>
+        <v>1.718657158294392</v>
       </c>
       <c r="I106">
-        <v>0.007294560144736842</v>
+        <v>0.01718657158294393</v>
       </c>
       <c r="J106">
-        <v>0.08123819901061012</v>
+        <v>0.08389482824845663</v>
       </c>
       <c r="K106">
-        <v>0.09505398132376895</v>
+        <v>0.09682048633414313</v>
       </c>
       <c r="L106">
-        <v>0.5766590389016019</v>
+        <v>0.284263959390863</v>
       </c>
       <c r="M106">
-        <v>0.2334096109839817</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>0.2616822429906542</v>
+      </c>
+      <c r="N106">
+        <v>0.6588785046728972</v>
+      </c>
+      <c r="O106">
+        <v>0.3457943925233645</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1"/>
       <c r="B107" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>49549.72668112798</v>
+        <v>48862.26157407407</v>
       </c>
       <c r="D107">
-        <v>-0.5112427162693997</v>
+        <v>0.1064839263365956</v>
       </c>
       <c r="E107">
-        <v>0.1951396273525314</v>
+        <v>0.07629123639377776</v>
       </c>
       <c r="F107">
-        <v>0.1910064491736434</v>
+        <v>0.1054977959804293</v>
       </c>
       <c r="G107">
-        <v>1.191352439578525</v>
+        <v>1.11111619073405</v>
       </c>
       <c r="H107">
-        <v>0.6637498000542299</v>
+        <v>1.518713900733025</v>
       </c>
       <c r="I107">
-        <v>0.006637498000542299</v>
+        <v>0.01518713900733025</v>
       </c>
       <c r="J107">
-        <v>0.07811864437525377</v>
+        <v>0.08185411045137322</v>
       </c>
       <c r="K107">
-        <v>0.09383398800734535</v>
+        <v>0.09603844644741336</v>
       </c>
       <c r="L107">
-        <v>0.5921908893709328</v>
+        <v>0.2975</v>
       </c>
       <c r="M107">
-        <v>0.5813449023861171</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="1"/>
+        <v>0.275462962962963</v>
+      </c>
+      <c r="N107">
+        <v>0.6504629629629629</v>
+      </c>
+      <c r="O107">
+        <v>0.3842592592592592</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="1">
+        <v>2020</v>
+      </c>
       <c r="B108" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>49058.58974358974</v>
+        <v>48829.84439359268</v>
       </c>
       <c r="D108">
-        <v>0.1207906815158263</v>
+        <v>0.01811589006822459</v>
       </c>
       <c r="E108">
-        <v>0.2021654453491618</v>
+        <v>0.07481776605706689</v>
       </c>
       <c r="F108">
-        <v>0.1934960525977297</v>
+        <v>0.1043775503727165</v>
       </c>
       <c r="G108">
-        <v>1.164520203313411</v>
+        <v>1.232393981097888</v>
       </c>
       <c r="H108">
-        <v>0.7953461063034188</v>
+        <v>0.7294560144736842</v>
       </c>
       <c r="I108">
-        <v>0.007953461063034187</v>
+        <v>0.007294560144736842</v>
       </c>
       <c r="J108">
-        <v>0.07782467326183883</v>
+        <v>0.08123819901061012</v>
       </c>
       <c r="K108">
-        <v>0.0927978683847908</v>
+        <v>0.09505398132376895</v>
       </c>
       <c r="L108">
-        <v>0.5918803418803419</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="M108">
-        <v>0.7136752136752137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>0.2837528604118993</v>
+      </c>
+      <c r="N108">
+        <v>0.6407322654462243</v>
+      </c>
+      <c r="O108">
+        <v>0.1624713958810069</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1"/>
       <c r="B109" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>49724.05296610169</v>
+        <v>49549.72668112798</v>
       </c>
       <c r="D109">
-        <v>1.334607840509956</v>
+        <v>0.002753253757291942</v>
       </c>
       <c r="E109">
-        <v>0.2041611236619302</v>
+        <v>0.07238844418246278</v>
       </c>
       <c r="F109">
-        <v>0.1969971680978058</v>
+        <v>0.09117107828247385</v>
       </c>
       <c r="G109">
-        <v>1.184319741124783</v>
+        <v>1.191352439578525</v>
       </c>
       <c r="H109">
-        <v>1.111687281956214</v>
+        <v>0.6637498000542299</v>
       </c>
       <c r="I109">
-        <v>0.01111687281956215</v>
+        <v>0.006637498000542299</v>
       </c>
       <c r="J109">
-        <v>0.08217605728704912</v>
+        <v>0.07811864437525377</v>
       </c>
       <c r="K109">
-        <v>0.09248819936464921</v>
+        <v>0.09383398800734535</v>
       </c>
       <c r="L109">
-        <v>0.586864406779661</v>
+        <v>0.3536299765807963</v>
       </c>
       <c r="M109">
-        <v>0.7648305084745762</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="1">
-        <v>2021</v>
-      </c>
+        <v>0.3275488069414317</v>
+      </c>
+      <c r="N109">
+        <v>0.5986984815618221</v>
+      </c>
+      <c r="O109">
+        <v>0.4121475054229935</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="1"/>
       <c r="B110" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>49784.78947368421</v>
+        <v>49058.58974358974</v>
       </c>
       <c r="D110">
-        <v>-0.2093076123135072</v>
+        <v>0.08428481398271853</v>
       </c>
       <c r="E110">
-        <v>0.2112526223158378</v>
+        <v>0.07223892604103706</v>
       </c>
       <c r="F110">
-        <v>0.1928285530175305</v>
+        <v>0.1568845201256577</v>
       </c>
       <c r="G110">
-        <v>1.189366079027981</v>
+        <v>1.164520203313411</v>
       </c>
       <c r="H110">
-        <v>1.615117203157895</v>
+        <v>0.7953461063034188</v>
       </c>
       <c r="I110">
-        <v>0.01615117203157895</v>
+        <v>0.007953461063034187</v>
       </c>
       <c r="J110">
-        <v>0.08751313677325778</v>
+        <v>0.07782467326183883</v>
       </c>
       <c r="K110">
-        <v>0.09222994540195452</v>
+        <v>0.0927978683847908</v>
       </c>
       <c r="L110">
-        <v>0.5852631578947368</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="M110">
-        <v>0.3810526315789474</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>0.3247863247863248</v>
+      </c>
+      <c r="N110">
+        <v>0.5982905982905983</v>
+      </c>
+      <c r="O110">
+        <v>0.4615384615384616</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1"/>
       <c r="B111" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>51117.12025316455</v>
+        <v>49724.05296610169</v>
       </c>
       <c r="D111">
-        <v>0.08104852065445059</v>
+        <v>1.09454622763723</v>
       </c>
       <c r="E111">
-        <v>0.2283945523206567</v>
+        <v>0.06988323535391465</v>
       </c>
       <c r="F111">
-        <v>0.232662419382063</v>
+        <v>0.1606088509508619</v>
       </c>
       <c r="G111">
-        <v>1.186220316361833</v>
+        <v>1.184319741124783</v>
       </c>
       <c r="H111">
-        <v>1.353076004395218</v>
+        <v>1.111687281956214</v>
       </c>
       <c r="I111">
-        <v>0.01353076004395218</v>
+        <v>0.01111687281956215</v>
       </c>
       <c r="J111">
-        <v>0.08470397902566215</v>
+        <v>0.08217605728704912</v>
       </c>
       <c r="K111">
-        <v>0.09151826395009595</v>
+        <v>0.09248819936464921</v>
       </c>
       <c r="L111">
-        <v>0.5949367088607594</v>
+        <v>0.3586206896551724</v>
       </c>
       <c r="M111">
-        <v>0.6919831223628692</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="1"/>
+        <v>0.3305084745762712</v>
+      </c>
+      <c r="N111">
+        <v>0.5911016949152542</v>
+      </c>
+      <c r="O111">
+        <v>0.4745762711864407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="1">
+        <v>2021</v>
+      </c>
       <c r="B112" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>51606.80212765958</v>
+        <v>49784.78947368421</v>
       </c>
       <c r="D112">
-        <v>0.3289692761176556</v>
+        <v>-0.03116560105217135</v>
       </c>
       <c r="E112">
-        <v>0.2354005412863104</v>
+        <v>0.08361777787136999</v>
       </c>
       <c r="F112">
-        <v>0.2371853761827474</v>
+        <v>0.1592018848410471</v>
       </c>
       <c r="G112">
-        <v>1.165557997938146</v>
+        <v>1.189366079027981</v>
       </c>
       <c r="H112">
-        <v>1.500610725886525</v>
+        <v>1.615117203157895</v>
       </c>
       <c r="I112">
-        <v>0.01500610725886525</v>
+        <v>0.01615117203157895</v>
       </c>
       <c r="J112">
-        <v>0.08493958713515397</v>
+        <v>0.08751313677325778</v>
       </c>
       <c r="K112">
-        <v>0.09102611623269462</v>
+        <v>0.09222994540195452</v>
       </c>
       <c r="L112">
-        <v>0.6021276595744681</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="M112">
-        <v>0.7531914893617021</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>0.3368421052631579</v>
+      </c>
+      <c r="N112">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="O112">
+        <v>0.2968421052631579</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="1"/>
       <c r="B113" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113">
-        <v>52672.41772151898</v>
+        <v>51117.12025316455</v>
       </c>
       <c r="D113">
-        <v>-0.01368993608208597</v>
+        <v>0.08817008651302188</v>
       </c>
       <c r="E113">
-        <v>0.2594026997139051</v>
+        <v>0.09270836213375873</v>
       </c>
       <c r="F113">
-        <v>0.2524361418892221</v>
+        <v>0.1690053010327696</v>
       </c>
       <c r="G113">
-        <v>1.150000381054395</v>
+        <v>1.186220316361833</v>
       </c>
       <c r="H113">
-        <v>1.700856526898734</v>
+        <v>1.353076004395218</v>
       </c>
       <c r="I113">
-        <v>0.01700856526898734</v>
+        <v>0.01353076004395218</v>
       </c>
       <c r="J113">
-        <v>0.08600858813225104</v>
+        <v>0.08470397902566215</v>
       </c>
       <c r="K113">
-        <v>0.09104407544415108</v>
+        <v>0.09151826395009595</v>
       </c>
       <c r="L113">
-        <v>0.6139240506329114</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="M113">
-        <v>0.7763713080168776</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="1">
-        <v>2022</v>
-      </c>
+        <v>0.3481012658227848</v>
+      </c>
+      <c r="N113">
+        <v>0.5590717299578059</v>
+      </c>
+      <c r="O113">
+        <v>0.4662447257383966</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="1"/>
       <c r="B114" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>53028.31808278867</v>
+        <v>51606.80212765958</v>
       </c>
       <c r="D114">
-        <v>-0.07051407992165556</v>
+        <v>0.1016462834460749</v>
       </c>
       <c r="E114">
-        <v>0.2480951814540514</v>
+        <v>0.09360466159157502</v>
       </c>
       <c r="F114">
-        <v>0.2360225812552015</v>
+        <v>0.1671721538021925</v>
       </c>
       <c r="G114">
-        <v>1.139169586900689</v>
+        <v>1.165557997938146</v>
       </c>
       <c r="H114">
-        <v>2.279443241103849</v>
+        <v>1.500610725886525</v>
       </c>
       <c r="I114">
-        <v>0.02279443241103849</v>
+        <v>0.01500610725886525</v>
       </c>
       <c r="J114">
-        <v>0.09114460762507982</v>
+        <v>0.08493958713515397</v>
       </c>
       <c r="K114">
-        <v>0.09110956414373134</v>
+        <v>0.09102611623269462</v>
       </c>
       <c r="L114">
-        <v>0.6143790849673203</v>
+        <v>0.3911007025761124</v>
       </c>
       <c r="M114">
-        <v>0.355119825708061</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>0.3553191489361702</v>
+      </c>
+      <c r="N114">
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="O114">
+        <v>0.474468085106383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="1"/>
       <c r="B115" s="1">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>52835.58016877637</v>
+      </c>
+      <c r="D115">
+        <v>0.009120692525415381</v>
+      </c>
+      <c r="E115">
+        <v>0.0961034383610208</v>
+      </c>
+      <c r="F115">
+        <v>0.163869099758234</v>
+      </c>
+      <c r="G115">
+        <v>1.152231630130968</v>
+      </c>
+      <c r="H115">
+        <v>1.700728827531646</v>
+      </c>
+      <c r="I115">
+        <v>0.01700728827531645</v>
+      </c>
+      <c r="J115">
+        <v>0.08614118608317455</v>
+      </c>
+      <c r="K115">
+        <v>0.09099674374568235</v>
+      </c>
+      <c r="L115">
+        <v>0.3990825688073394</v>
+      </c>
+      <c r="M115">
+        <v>0.3670886075949367</v>
+      </c>
+      <c r="N115">
+        <v>0.5527426160337553</v>
+      </c>
+      <c r="O115">
+        <v>0.4177215189873418</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>53028.31808278867</v>
+      </c>
+      <c r="D116">
+        <v>-0.0756494831069419</v>
+      </c>
+      <c r="E116">
+        <v>0.08874457202522913</v>
+      </c>
+      <c r="F116">
+        <v>0.1689282902034752</v>
+      </c>
+      <c r="G116">
+        <v>1.139169586900689</v>
+      </c>
+      <c r="H116">
+        <v>2.279443241103849</v>
+      </c>
+      <c r="I116">
+        <v>0.02279443241103849</v>
+      </c>
+      <c r="J116">
+        <v>0.09114460762507982</v>
+      </c>
+      <c r="K116">
+        <v>0.09110956414373134</v>
+      </c>
+      <c r="L116">
+        <v>0.3726415094339622</v>
+      </c>
+      <c r="M116">
+        <v>0.3442265795206972</v>
+      </c>
+      <c r="N116">
+        <v>0.579520697167756</v>
+      </c>
+      <c r="O116">
+        <v>0.2657952069716776</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1">
         <v>2</v>
       </c>
-      <c r="C115">
+      <c r="C117">
         <v>46649.2972972973</v>
       </c>
-      <c r="D115">
-        <v>0.1786266563322163</v>
-      </c>
-      <c r="E115">
-        <v>0.5740583350358064</v>
-      </c>
-      <c r="F115">
-        <v>0.4346909042829572</v>
-      </c>
-      <c r="G115">
+      <c r="D117">
+        <v>0.126605842694428</v>
+      </c>
+      <c r="E117">
+        <v>0.2303720395487536</v>
+      </c>
+      <c r="F117">
+        <v>0.3019010276388684</v>
+      </c>
+      <c r="G117">
         <v>1.077884969186647</v>
       </c>
-      <c r="H115">
+      <c r="H117">
         <v>2.066085486486486</v>
       </c>
-      <c r="I115">
+      <c r="I117">
         <v>0.02066085486486486</v>
       </c>
-      <c r="J115">
+      <c r="J117">
         <v>0.08533395301606365</v>
       </c>
-      <c r="K115">
+      <c r="K117">
         <v>0.08578305778152359</v>
       </c>
-      <c r="L115">
-        <v>0.6486486486486487</v>
-      </c>
-      <c r="M115">
-        <v>0.5405405405405406</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1">
+      <c r="L117">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="M117">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="N117">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="O117">
+        <v>0.4324324324324325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1">
         <v>3</v>
       </c>
-      <c r="C116">
+      <c r="C118">
         <v>53520.8</v>
       </c>
-      <c r="D116">
-        <v>0.3392030040751688</v>
-      </c>
-      <c r="E116">
-        <v>0.7983073493716998</v>
-      </c>
-      <c r="F116">
-        <v>0.7875758033737726</v>
-      </c>
-      <c r="G116">
+      <c r="D118">
+        <v>0.09147039724413449</v>
+      </c>
+      <c r="E118">
+        <v>0.3059958893307782</v>
+      </c>
+      <c r="F118">
+        <v>0.440457406926068</v>
+      </c>
+      <c r="G118">
         <v>1.036297539983497</v>
       </c>
-      <c r="H116">
+      <c r="H118">
         <v>2.340687</v>
       </c>
-      <c r="I116">
+      <c r="I118">
         <v>0.02340687</v>
       </c>
-      <c r="J116">
+      <c r="J118">
         <v>0.08558472239900983</v>
       </c>
-      <c r="K116">
+      <c r="K118">
         <v>0.08368269465686538</v>
       </c>
-      <c r="L116">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="M116">
-        <v>0.6</v>
+      <c r="L118">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M118">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N118">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="O118">
+        <v>0.4666666666666667</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
